--- a/DataLuvaShop/phone_laptop_watch_data_tth.xlsx
+++ b/DataLuvaShop/phone_laptop_watch_data_tth.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\BackupLinux\FacePython\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/58dcdd4e14744d6b/LuvaTech/DataLuvaShop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2E5F23B-101F-4AFB-AFA1-F71EB972B43A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="13_ncr:1_{E2E5F23B-101F-4AFB-AFA1-F71EB972B43A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C0A54977-6376-4782-8728-17F528FDD06F}"/>
   <bookViews>
-    <workbookView xWindow="-21720" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19680" yWindow="1920" windowWidth="16200" windowHeight="9210" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Phone" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1000" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1006" uniqueCount="228">
   <si>
     <t>Title</t>
   </si>
@@ -225,9 +225,6 @@
     <t>Apple Macbook Air M2 2022</t>
   </si>
   <si>
-    <t>256 GB SSD</t>
-  </si>
-  <si>
     <t>13.6"Liquid Retina (2560 x 1664)</t>
   </si>
   <si>
@@ -261,9 +258,6 @@
     <t>16 GBLPDDR5 (Onboard)5200 MHz</t>
   </si>
   <si>
-    <t>512 GB SSD NVMe PCIe (Có thể tháo ra lắp thanh khác tối đa 2TB)</t>
-  </si>
-  <si>
     <t>13.4"3.5K (3456 x 2160) - OLED</t>
   </si>
   <si>
@@ -288,9 +282,6 @@
     <t>8 GBDDR4 2 khe (1 khe 8 GB + 1 khe rời)3200 MHz</t>
   </si>
   <si>
-    <t>Hỗ trợ khe cắm HDD SATA 2.5 inch mở rộng (nâng cấp tối đa 2 TB)512 GB SSD NVMe PCIe (Có thể tháo ra lắp thanh khác tối đa 1TB (2280) / 512GB (2230))</t>
-  </si>
-  <si>
     <t>14"Full HD (1920 x 1080)</t>
   </si>
   <si>
@@ -312,9 +303,6 @@
     <t>4 GBDDR4 2 khe (1 khe 4 GB + 1 khe rời)3200 MHz</t>
   </si>
   <si>
-    <t>256 GB SSD NVMe PCIe (Có thể tháo ra lắp thanh khác tối đa 1TB)</t>
-  </si>
-  <si>
     <t>Card tích hợpIntel UHD</t>
   </si>
   <si>
@@ -336,9 +324,6 @@
     <t>8 GBDDR4 (Onboard 4 GB + 1 khe 4 GB)3200 MHz</t>
   </si>
   <si>
-    <t>Hỗ trợ thêm 1 khe cắm HDD SATA (nâng cấp tối đa 1TB)512 GB SSD NVMe PCIe (Có thể tháo ra lắp thanh khác tối đa 1TB)</t>
-  </si>
-  <si>
     <t>15.6"Full HD (1920 x 1080)</t>
   </si>
   <si>
@@ -663,9 +648,6 @@
     <t>Apple Macbook Air M2 2029</t>
   </si>
   <si>
-    <t>Ổ cứng</t>
-  </si>
-  <si>
     <t>Card</t>
   </si>
   <si>
@@ -733,6 +715,18 @@
   </si>
   <si>
     <t>Series 6</t>
+  </si>
+  <si>
+    <t>i5 1240P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD 256 GB </t>
+  </si>
+  <si>
+    <t>SSD 512 GB</t>
+  </si>
+  <si>
+    <t>SSD 256 GB</t>
   </si>
 </sst>
 </file>
@@ -1055,7 +1049,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R958"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+    <sheetView zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
@@ -1076,16 +1070,16 @@
   <sheetData>
     <row r="1" spans="1:18" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>0</v>
@@ -1106,28 +1100,28 @@
         <v>5</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="M1" s="7" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="N1" s="7" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="O1" s="7" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="P1" s="9" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="Q1" s="9" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="R1" s="9" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1135,10 +1129,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D2" s="3" t="str">
         <f>CONCATENATE(B2,C2)</f>
@@ -1181,10 +1175,10 @@
         <v>100</v>
       </c>
       <c r="Q2" s="9" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="R2" s="9" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1192,10 +1186,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="D3" s="3" t="str">
         <f t="shared" ref="D3:D38" si="0">CONCATENATE(B3,C3)</f>
@@ -1238,10 +1232,10 @@
         <v>100</v>
       </c>
       <c r="Q3" s="9" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="R3" s="9" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1249,10 +1243,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="D4" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1295,10 +1289,10 @@
         <v>100</v>
       </c>
       <c r="Q4" s="9" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="R4" s="9" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1306,10 +1300,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D5" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1352,10 +1346,10 @@
         <v>100</v>
       </c>
       <c r="Q5" s="9" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="R5" s="9" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1363,10 +1357,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="D6" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1409,10 +1403,10 @@
         <v>100</v>
       </c>
       <c r="Q6" s="9" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="R6" s="9" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1420,10 +1414,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="C7" s="11" t="s">
         <v>150</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>155</v>
       </c>
       <c r="D7" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1466,10 +1460,10 @@
         <v>100</v>
       </c>
       <c r="Q7" s="9" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="R7" s="9" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1477,10 +1471,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D8" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1523,10 +1517,10 @@
         <v>100</v>
       </c>
       <c r="Q8" s="9" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="R8" s="9" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1534,10 +1528,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D9" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1580,10 +1574,10 @@
         <v>100</v>
       </c>
       <c r="Q9" s="9" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="R9" s="9" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1591,10 +1585,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D10" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1637,10 +1631,10 @@
         <v>100</v>
       </c>
       <c r="Q10" s="9" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="R10" s="9" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1648,10 +1642,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D11" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1694,10 +1688,10 @@
         <v>100</v>
       </c>
       <c r="Q11" s="9" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="R11" s="9" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1705,10 +1699,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="D12" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1751,10 +1745,10 @@
         <v>100</v>
       </c>
       <c r="Q12" s="9" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="R12" s="9" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1762,10 +1756,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D13" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1808,10 +1802,10 @@
         <v>100</v>
       </c>
       <c r="Q13" s="9" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="R13" s="9" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
     </row>
     <row r="14" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1819,10 +1813,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="D14" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1838,7 +1832,7 @@
         <v>8</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>10</v>
@@ -1865,10 +1859,10 @@
         <v>100</v>
       </c>
       <c r="Q14" s="9" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="R14" s="9" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
     </row>
     <row r="15" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1876,10 +1870,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="D15" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1895,7 +1889,7 @@
         <v>8</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>16</v>
@@ -1922,10 +1916,10 @@
         <v>100</v>
       </c>
       <c r="Q15" s="9" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="R15" s="9" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
     </row>
     <row r="16" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1933,10 +1927,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D16" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1952,7 +1946,7 @@
         <v>8</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="I16" s="3" t="s">
         <v>17</v>
@@ -1979,10 +1973,10 @@
         <v>100</v>
       </c>
       <c r="Q16" s="9" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="R16" s="9" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
     </row>
     <row r="17" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1990,10 +1984,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D17" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2009,7 +2003,7 @@
         <v>8</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>18</v>
@@ -2036,10 +2030,10 @@
         <v>100</v>
       </c>
       <c r="Q17" s="9" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="R17" s="9" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
     </row>
     <row r="18" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2047,10 +2041,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D18" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2093,10 +2087,10 @@
         <v>100</v>
       </c>
       <c r="Q18" s="9" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="R18" s="9" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="19" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2104,10 +2098,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="D19" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2150,10 +2144,10 @@
         <v>100</v>
       </c>
       <c r="Q19" s="9" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="R19" s="9" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="20" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2161,10 +2155,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="D20" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2207,10 +2201,10 @@
         <v>100</v>
       </c>
       <c r="Q20" s="9" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="R20" s="9" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="21" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2218,10 +2212,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="D21" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2264,10 +2258,10 @@
         <v>100</v>
       </c>
       <c r="Q21" s="9" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="R21" s="9" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="22" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2275,10 +2269,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="D22" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2321,10 +2315,10 @@
         <v>100</v>
       </c>
       <c r="Q22" s="9" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="R22" s="9" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="23" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2332,10 +2326,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D23" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2378,10 +2372,10 @@
         <v>100</v>
       </c>
       <c r="Q23" s="9" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="R23" s="9" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="24" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2389,10 +2383,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D24" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2435,10 +2429,10 @@
         <v>100</v>
       </c>
       <c r="Q24" s="9" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="R24" s="9" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="25" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2446,10 +2440,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D25" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2492,10 +2486,10 @@
         <v>100</v>
       </c>
       <c r="Q25" s="9" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="R25" s="9" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="26" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2503,10 +2497,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="D26" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2549,10 +2543,10 @@
         <v>100</v>
       </c>
       <c r="Q26" s="9" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="R26" s="9" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
     <row r="27" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2560,10 +2554,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="D27" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2606,10 +2600,10 @@
         <v>100</v>
       </c>
       <c r="Q27" s="9" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="R27" s="9" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
     <row r="28" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2617,10 +2611,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="D28" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2663,10 +2657,10 @@
         <v>100</v>
       </c>
       <c r="Q28" s="9" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="R28" s="9" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
     <row r="29" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2674,10 +2668,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="D29" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2720,10 +2714,10 @@
         <v>100</v>
       </c>
       <c r="Q29" s="9" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="R29" s="9" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
     <row r="30" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2731,10 +2725,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="D30" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2777,10 +2771,10 @@
         <v>100</v>
       </c>
       <c r="Q30" s="9" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="R30" s="9" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
     <row r="31" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2788,10 +2782,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D31" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2834,10 +2828,10 @@
         <v>100</v>
       </c>
       <c r="Q31" s="9" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="R31" s="9" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
     <row r="32" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2845,10 +2839,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="D32" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2891,10 +2885,10 @@
         <v>100</v>
       </c>
       <c r="Q32" s="9" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="R32" s="9" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
     <row r="33" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2902,10 +2896,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="D33" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2948,10 +2942,10 @@
         <v>100</v>
       </c>
       <c r="Q33" s="9" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="R33" s="9" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
     </row>
     <row r="34" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2959,10 +2953,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="D34" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3005,10 +2999,10 @@
         <v>100</v>
       </c>
       <c r="Q34" s="9" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="R34" s="9" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
     </row>
     <row r="35" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3016,10 +3010,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="D35" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3062,10 +3056,10 @@
         <v>100</v>
       </c>
       <c r="Q35" s="9" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="R35" s="9" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
     </row>
     <row r="36" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3073,10 +3067,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="D36" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3119,10 +3113,10 @@
         <v>100</v>
       </c>
       <c r="Q36" s="9" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="R36" s="9" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
     </row>
     <row r="37" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3130,10 +3124,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="D37" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3176,10 +3170,10 @@
         <v>100</v>
       </c>
       <c r="Q37" s="9" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="R37" s="9" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
     </row>
     <row r="38" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3187,10 +3181,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D38" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3233,10 +3227,10 @@
         <v>100</v>
       </c>
       <c r="Q38" s="9" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="R38" s="9" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
     </row>
     <row r="39" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4187,36 +4181,36 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>19</v>
@@ -4237,15 +4231,15 @@
         <v>15</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>25</v>
@@ -4266,15 +4260,15 @@
         <v>30</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>35</v>
@@ -4295,15 +4289,15 @@
         <v>40</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>42</v>
@@ -4324,15 +4318,15 @@
         <v>40</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>46</v>
@@ -4353,15 +4347,15 @@
         <v>51</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>54</v>
@@ -4382,10 +4376,10 @@
         <v>58</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -4409,18 +4403,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>144</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>7</v>
@@ -4431,7 +4425,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>24</v>
@@ -4442,7 +4436,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>34</v>
@@ -4453,7 +4447,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>41</v>
@@ -4464,7 +4458,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>45</v>
@@ -4475,7 +4469,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>53</v>
@@ -4486,7 +4480,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>59</v>
@@ -4497,10 +4491,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C9">
         <v>5</v>
@@ -4508,10 +4502,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C10">
         <v>5</v>
@@ -4519,10 +4513,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C11">
         <v>6</v>
@@ -4530,10 +4524,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C12">
         <v>7</v>
@@ -4541,10 +4535,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -4552,10 +4546,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -4563,10 +4557,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -4594,13 +4588,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -4608,10 +4602,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -4619,10 +4613,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -4630,10 +4624,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -4641,10 +4635,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -4652,10 +4646,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -4663,10 +4657,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -4674,10 +4668,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -4689,7 +4683,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:R911"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
@@ -4714,16 +4708,16 @@
   <sheetData>
     <row r="1" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>0</v>
@@ -4738,34 +4732,34 @@
         <v>1</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>206</v>
+        <v>3</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="P1" s="6" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="R1" s="10" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -4773,10 +4767,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D2" s="17" t="str">
         <f>CONCATENATE(B2,C2)</f>
@@ -4792,31 +4786,31 @@
         <v>29590000</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>26</v>
       </c>
       <c r="J2" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="K2" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="L2" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="M2" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="N2" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="O2" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="O2" s="6" t="s">
+      <c r="P2" s="6" t="s">
         <v>65</v>
-      </c>
-      <c r="P2" s="6" t="s">
-        <v>66</v>
       </c>
       <c r="Q2" s="6">
         <v>2022</v>
@@ -4830,17 +4824,17 @@
         <v>2</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="D3" s="17" t="str">
         <f t="shared" ref="D3:D13" si="0">CONCATENATE(B3,C3)</f>
         <v>00070002</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>31</v>
@@ -4849,31 +4843,31 @@
         <v>29590000</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="I3" s="6" t="s">
         <v>26</v>
       </c>
       <c r="J3" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="K3" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="L3" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="M3" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="M3" s="6" t="s">
+      <c r="N3" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="N3" s="6" t="s">
+      <c r="O3" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="O3" s="6" t="s">
+      <c r="P3" s="6" t="s">
         <v>65</v>
-      </c>
-      <c r="P3" s="6" t="s">
-        <v>66</v>
       </c>
       <c r="Q3" s="6">
         <v>2022</v>
@@ -4887,17 +4881,17 @@
         <v>3</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="D4" s="17" t="str">
         <f t="shared" si="0"/>
         <v>00070003</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>16</v>
@@ -4906,31 +4900,31 @@
         <v>28990000</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="I4" s="6" t="s">
         <v>26</v>
       </c>
       <c r="J4" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="K4" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="L4" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="M4" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="M4" s="6" t="s">
+      <c r="N4" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="N4" s="6" t="s">
+      <c r="O4" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="O4" s="6" t="s">
+      <c r="P4" s="6" t="s">
         <v>65</v>
-      </c>
-      <c r="P4" s="6" t="s">
-        <v>66</v>
       </c>
       <c r="Q4" s="6">
         <v>2022</v>
@@ -4944,17 +4938,17 @@
         <v>4</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D5" s="17" t="str">
         <f t="shared" si="0"/>
         <v>00070004</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>18</v>
@@ -4963,31 +4957,31 @@
         <v>29590000</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="I5" s="6" t="s">
         <v>26</v>
       </c>
       <c r="J5" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="K5" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="L5" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="L5" s="6" t="s">
+      <c r="M5" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="M5" s="6" t="s">
+      <c r="N5" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="N5" s="6" t="s">
+      <c r="O5" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="O5" s="6" t="s">
+      <c r="P5" s="6" t="s">
         <v>65</v>
-      </c>
-      <c r="P5" s="6" t="s">
-        <v>66</v>
       </c>
       <c r="Q5" s="6">
         <v>2022</v>
@@ -5001,17 +4995,17 @@
         <v>5</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="D6" s="17" t="str">
         <f t="shared" si="0"/>
         <v>00070005</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>10</v>
@@ -5020,31 +5014,31 @@
         <v>35590000</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="I6" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="M6" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="J6" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="K6" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="L6" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="M6" s="6" t="s">
-        <v>68</v>
-      </c>
       <c r="N6" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="O6" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="O6" s="6" t="s">
+      <c r="P6" s="6" t="s">
         <v>65</v>
-      </c>
-      <c r="P6" s="6" t="s">
-        <v>66</v>
       </c>
       <c r="Q6" s="6">
         <v>2022</v>
@@ -5058,17 +5052,17 @@
         <v>6</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D7" s="17" t="str">
         <f t="shared" si="0"/>
         <v>00070006</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>31</v>
@@ -5077,31 +5071,31 @@
         <v>34990000</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="I7" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="M7" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="J7" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="K7" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="L7" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="M7" s="6" t="s">
-        <v>68</v>
-      </c>
       <c r="N7" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="O7" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="O7" s="6" t="s">
+      <c r="P7" s="6" t="s">
         <v>65</v>
-      </c>
-      <c r="P7" s="6" t="s">
-        <v>66</v>
       </c>
       <c r="Q7" s="6">
         <v>2022</v>
@@ -5115,17 +5109,17 @@
         <v>7</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D8" s="17" t="str">
         <f t="shared" si="0"/>
         <v>00070007</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>18</v>
@@ -5134,31 +5128,31 @@
         <v>34990000</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="I8" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="M8" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="J8" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="L8" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="M8" s="6" t="s">
-        <v>68</v>
-      </c>
       <c r="N8" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="O8" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="O8" s="6" t="s">
+      <c r="P8" s="6" t="s">
         <v>65</v>
-      </c>
-      <c r="P8" s="6" t="s">
-        <v>66</v>
       </c>
       <c r="Q8" s="6">
         <v>2022</v>
@@ -5172,17 +5166,17 @@
         <v>8</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D9" s="17" t="str">
         <f t="shared" si="0"/>
         <v>00070008</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>16</v>
@@ -5191,31 +5185,31 @@
         <v>34990000</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="I9" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="M9" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="J9" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="K9" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="L9" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="M9" s="6" t="s">
-        <v>68</v>
-      </c>
       <c r="N9" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="O9" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="O9" s="6" t="s">
+      <c r="P9" s="6" t="s">
         <v>65</v>
-      </c>
-      <c r="P9" s="6" t="s">
-        <v>66</v>
       </c>
       <c r="Q9" s="6">
         <v>2022</v>
@@ -5229,17 +5223,17 @@
         <v>9</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D10" s="17" t="str">
         <f t="shared" si="0"/>
         <v>00080009</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>18</v>
@@ -5248,31 +5242,31 @@
         <v>46990000</v>
       </c>
       <c r="H10" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="I10" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="I10" s="6" t="s">
+      <c r="J10" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="K10" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="J10" s="6" t="s">
+      <c r="L10" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="K10" s="6" t="s">
+      <c r="M10" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="L10" s="6" t="s">
+      <c r="N10" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="M10" s="6" t="s">
+      <c r="O10" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="N10" s="6" t="s">
+      <c r="P10" s="6" t="s">
         <v>76</v>
-      </c>
-      <c r="O10" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="P10" s="6" t="s">
-        <v>78</v>
       </c>
       <c r="Q10" s="6">
         <v>2022</v>
@@ -5286,17 +5280,17 @@
         <v>10</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D11" s="17" t="str">
         <f t="shared" si="0"/>
         <v>00090010</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>10</v>
@@ -5305,31 +5299,31 @@
         <v>18590000</v>
       </c>
       <c r="H11" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I11" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="L11" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="J11" s="6" t="s">
+      <c r="M11" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="K11" s="6" t="s">
+      <c r="N11" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="O11" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="L11" s="6" t="s">
+      <c r="P11" s="6" t="s">
         <v>83</v>
-      </c>
-      <c r="M11" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="N11" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="O11" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="P11" s="6" t="s">
-        <v>86</v>
       </c>
       <c r="Q11" s="6">
         <v>2022</v>
@@ -5343,17 +5337,17 @@
         <v>11</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="D12" s="17" t="str">
         <f t="shared" si="0"/>
         <v>00100011</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>18</v>
@@ -5362,31 +5356,31 @@
         <v>12090000</v>
       </c>
       <c r="H12" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I12" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="L12" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="M12" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="N12" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="J12" s="6" t="s">
+      <c r="O12" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="K12" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="L12" s="6" t="s">
+      <c r="P12" s="6" t="s">
         <v>90</v>
-      </c>
-      <c r="M12" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="N12" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="O12" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="P12" s="6" t="s">
-        <v>94</v>
       </c>
       <c r="Q12" s="6">
         <v>2021</v>
@@ -5400,17 +5394,17 @@
         <v>12</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D13" s="17" t="str">
         <f t="shared" si="0"/>
         <v>00110012</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>10</v>
@@ -5419,31 +5413,31 @@
         <v>17790000</v>
       </c>
       <c r="H13" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>97</v>
+        <v>226</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="L13" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="M13" s="6" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="N13" s="6" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="O13" s="6" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="P13" s="6" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="Q13" s="6">
         <v>2021</v>
@@ -6359,10 +6353,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC274BC7-F0EA-4A50-A15D-196FC8F964D8}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -6377,160 +6371,178 @@
     <col min="8" max="8" width="12.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="F1" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="G2" t="s">
+        <v>206</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="G3" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="H3" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="I3" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="I4" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="F5" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="H1" s="10" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="G5" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="H2" s="8" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="F3" s="6" t="s">
+      <c r="H5" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="I5" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="F6" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G6" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="H3" s="8" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="F4" s="6" t="s">
+      <c r="H6" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="G4" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>221</v>
+      <c r="I6" t="s">
+        <v>224</v>
       </c>
     </row>
   </sheetData>
@@ -6563,16 +6575,16 @@
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>5</v>
@@ -6584,412 +6596,412 @@
         <v>6</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="M1" s="10" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="N1" s="10" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="O1" s="10" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C2" s="17" t="str">
         <f>CONCATENATE(A2,B2)</f>
         <v>00120001</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="E2" s="6">
         <v>6990000</v>
       </c>
       <c r="F2" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="K2" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="L2" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="H2" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>114</v>
-      </c>
       <c r="M2" s="10" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="N2">
         <v>38</v>
       </c>
       <c r="O2" s="8" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C3" s="17" t="str">
         <f t="shared" ref="C3:C9" si="0">CONCATENATE(A3,B3)</f>
         <v>00120002</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="E3" s="6">
         <v>6990000</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="G3" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="L3" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="H3" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>114</v>
-      </c>
       <c r="M3" s="10" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="N3">
         <v>38</v>
       </c>
       <c r="O3" s="8" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C4" s="17" t="str">
         <f t="shared" si="0"/>
         <v>00130003</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="E4" s="6">
         <v>16990000</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="G4" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="L4" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="H4" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="L4" s="6" t="s">
-        <v>114</v>
-      </c>
       <c r="M4" s="10" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="N4">
         <v>38</v>
       </c>
       <c r="O4" s="8" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C5" s="17" t="str">
         <f t="shared" si="0"/>
         <v>00130004</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="E5" s="6">
         <v>16990000</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="G5" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="L5" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="H5" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="K5" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="L5" s="6" t="s">
-        <v>114</v>
-      </c>
       <c r="M5" s="10" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="N5">
         <v>38</v>
       </c>
       <c r="O5" s="8" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C6" s="17" t="str">
         <f t="shared" si="0"/>
         <v>00140005</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="E6" s="6">
         <v>9990000</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="M6" s="10" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="N6">
         <v>38</v>
       </c>
       <c r="O6" s="8" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C7" s="17" t="str">
         <f t="shared" si="0"/>
         <v>00140006</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="E7" s="6">
         <v>9990000</v>
       </c>
       <c r="F7" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="J7" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="G7" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>125</v>
-      </c>
       <c r="K7" s="6" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="M7" s="10" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="N7">
         <v>38</v>
       </c>
       <c r="O7" s="8" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C8" s="17" t="str">
         <f t="shared" si="0"/>
         <v>00140007</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="E8" s="6">
         <v>9990000</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="M8" s="10" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="N8">
         <v>38</v>
       </c>
       <c r="O8" s="8" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C9" s="17" t="str">
         <f t="shared" si="0"/>
         <v>00140008</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="E9" s="6">
         <v>9990000</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="M9" s="10" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="N9">
         <v>38</v>
       </c>
       <c r="O9" s="8" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -8003,70 +8015,70 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>

--- a/DataLuvaShop/phone_laptop_watch_data_tth.xlsx
+++ b/DataLuvaShop/phone_laptop_watch_data_tth.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/58dcdd4e14744d6b/LuvaTech/DataLuvaShop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="13_ncr:1_{E2E5F23B-101F-4AFB-AFA1-F71EB972B43A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C0A54977-6376-4782-8728-17F528FDD06F}"/>
+  <xr:revisionPtr revIDLastSave="47" documentId="13_ncr:1_{E2E5F23B-101F-4AFB-AFA1-F71EB972B43A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D230B4CA-A893-443B-ABE6-BF9EC12DADB3}"/>
   <bookViews>
-    <workbookView xWindow="-19680" yWindow="1920" windowWidth="16200" windowHeight="9210" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-16110" yWindow="2580" windowWidth="16230" windowHeight="9225" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Phone" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1006" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1021" uniqueCount="243">
   <si>
     <t>Title</t>
   </si>
@@ -727,6 +727,51 @@
   </si>
   <si>
     <t>SSD 256 GB</t>
+  </si>
+  <si>
+    <t>PathImage</t>
+  </si>
+  <si>
+    <t>src/main/java/Assets/Image/laptop/Laptop_Dell_XPS13_9320/dell-xps-1.jpg</t>
+  </si>
+  <si>
+    <t>src/main/java/Assets/Image/phone/ip14pro/iphone14-pro-gold-1.jpg</t>
+  </si>
+  <si>
+    <t>src/main/java/Assets/Image/phone/Samsung_Galaxy_ZFold4/samsung_galaxy_z_fold_4-green-1.jpg</t>
+  </si>
+  <si>
+    <t>src/main/java/Assets/Image/phone/samsungzflip4/samsung_galaxy_z_flip-blue-1.jpg</t>
+  </si>
+  <si>
+    <t>src/main/java/Assets/Image/phone/OPPO_Reno8/reno8_4g-gold-1.jpg</t>
+  </si>
+  <si>
+    <t>src/main/java/Assets/Image/phone/oppo_zero8Z_5g/oppo_starlight_black-1.jpg</t>
+  </si>
+  <si>
+    <t>src/main/java/Assets/Image/phone/Xiaomi_Redmi_Note11ProPlus_5G/11-pro-plus-blue-1.jpg</t>
+  </si>
+  <si>
+    <t>src/main/java/Assets/Image/laptop/Apple_Macbook_AirM2/macbook_air_m2-black-2.jpg</t>
+  </si>
+  <si>
+    <t>src/main/java/Assets/Image/laptop/Laptop_Dell_Vostro_3400/dell-vostro-1.jpg</t>
+  </si>
+  <si>
+    <t>src/main/java/Assets/Image/laptop/Laptop HP_Pavilion14_dv0516TU/hp-14s-fq1080au-2.jpg</t>
+  </si>
+  <si>
+    <t>src/main/java/Assets/Image/laptop/Laptop_Asus_VivoBook_X515EA/laptop-asus-vivobook-1.jpg</t>
+  </si>
+  <si>
+    <t>src/main/java/Assets/Image/watch/Apple_Watch_SE/se-40mm-black-1.jpg</t>
+  </si>
+  <si>
+    <t>src/main/java/Assets/Image/watch/Apple_Watch_S5_LTE/apple-watch-s5-lte-silver-1.jpg</t>
+  </si>
+  <si>
+    <t>src/main/java/Assets/Image/watch/Apple_Watch_Series7_GPS_41mm/apple-watch-s7-41mm-red-1.jpg</t>
   </si>
 </sst>
 </file>
@@ -847,6 +892,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4389,19 +4438,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{240E1A88-5716-43C5-A9B9-75B9DFFF2174}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.69921875" style="12" customWidth="1"/>
     <col min="2" max="2" width="35.796875" customWidth="1"/>
+    <col min="4" max="4" width="40.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>139</v>
       </c>
@@ -4411,8 +4461,11 @@
       <c r="C1" s="8" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" s="8" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>145</v>
       </c>
@@ -4422,8 +4475,11 @@
       <c r="C2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2" s="8" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>146</v>
       </c>
@@ -4433,8 +4489,11 @@
       <c r="C3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D3" s="8" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>147</v>
       </c>
@@ -4444,8 +4503,11 @@
       <c r="C4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D4" s="8" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>148</v>
       </c>
@@ -4455,8 +4517,11 @@
       <c r="C5">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D5" s="8" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
         <v>149</v>
       </c>
@@ -4466,8 +4531,11 @@
       <c r="C6">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D6" s="8" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>150</v>
       </c>
@@ -4477,8 +4545,11 @@
       <c r="C7">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D7" s="8" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>151</v>
       </c>
@@ -4488,8 +4559,11 @@
       <c r="C8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D8" s="8" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>152</v>
       </c>
@@ -4499,8 +4573,11 @@
       <c r="C9">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D9" s="8" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>153</v>
       </c>
@@ -4510,8 +4587,11 @@
       <c r="C10">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D10" s="8" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>154</v>
       </c>
@@ -4521,8 +4601,11 @@
       <c r="C11">
         <v>6</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D11" s="8" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
         <v>155</v>
       </c>
@@ -4532,8 +4615,11 @@
       <c r="C12">
         <v>7</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D12" s="8" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
         <v>156</v>
       </c>
@@ -4543,8 +4629,11 @@
       <c r="C13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D13" s="8" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
         <v>157</v>
       </c>
@@ -4554,8 +4643,11 @@
       <c r="C14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D14" s="8" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
         <v>158</v>
       </c>
@@ -4564,11 +4656,15 @@
       </c>
       <c r="C15">
         <v>1</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>242</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6355,7 +6451,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC274BC7-F0EA-4A50-A15D-196FC8F964D8}">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>

--- a/DataLuvaShop/phone_laptop_watch_data_tth.xlsx
+++ b/DataLuvaShop/phone_laptop_watch_data_tth.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/58dcdd4e14744d6b/LuvaTech/DataLuvaShop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="47" documentId="13_ncr:1_{E2E5F23B-101F-4AFB-AFA1-F71EB972B43A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D230B4CA-A893-443B-ABE6-BF9EC12DADB3}"/>
+  <xr:revisionPtr revIDLastSave="48" documentId="13_ncr:1_{E2E5F23B-101F-4AFB-AFA1-F71EB972B43A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{25812899-820E-463E-A063-533EDE6E483D}"/>
   <bookViews>
     <workbookView xWindow="-16110" yWindow="2580" windowWidth="16230" windowHeight="9225" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -735,9 +735,6 @@
     <t>src/main/java/Assets/Image/laptop/Laptop_Dell_XPS13_9320/dell-xps-1.jpg</t>
   </si>
   <si>
-    <t>src/main/java/Assets/Image/phone/ip14pro/iphone14-pro-gold-1.jpg</t>
-  </si>
-  <si>
     <t>src/main/java/Assets/Image/phone/Samsung_Galaxy_ZFold4/samsung_galaxy_z_fold_4-green-1.jpg</t>
   </si>
   <si>
@@ -772,6 +769,9 @@
   </si>
   <si>
     <t>src/main/java/Assets/Image/watch/Apple_Watch_Series7_GPS_41mm/apple-watch-s7-41mm-red-1.jpg</t>
+  </si>
+  <si>
+    <t>src/main/java/Assets/Image/phone/ip14pro/iphone-14-pro-gold-1.jpg</t>
   </si>
 </sst>
 </file>
@@ -4441,7 +4441,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -4476,7 +4476,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -4490,7 +4490,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -4504,7 +4504,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -4518,7 +4518,7 @@
         <v>3</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -4532,7 +4532,7 @@
         <v>4</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -4546,7 +4546,7 @@
         <v>2</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -4560,7 +4560,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -4588,7 +4588,7 @@
         <v>5</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -4602,7 +4602,7 @@
         <v>6</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -4616,7 +4616,7 @@
         <v>7</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -4630,7 +4630,7 @@
         <v>1</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -4644,7 +4644,7 @@
         <v>1</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -4658,7 +4658,7 @@
         <v>1</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
   </sheetData>

--- a/DataLuvaShop/phone_laptop_watch_data_tth.xlsx
+++ b/DataLuvaShop/phone_laptop_watch_data_tth.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/58dcdd4e14744d6b/LuvaTech/DataLuvaShop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="48" documentId="13_ncr:1_{E2E5F23B-101F-4AFB-AFA1-F71EB972B43A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{25812899-820E-463E-A063-533EDE6E483D}"/>
+  <xr:revisionPtr revIDLastSave="137" documentId="13_ncr:1_{E2E5F23B-101F-4AFB-AFA1-F71EB972B43A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{321F4FBE-57B1-47C6-AF97-CFCDBCEFB617}"/>
   <bookViews>
-    <workbookView xWindow="-16110" yWindow="2580" windowWidth="16230" windowHeight="9225" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Phone" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="LaptopInfo" sheetId="7" r:id="rId6"/>
     <sheet name="Watch" sheetId="3" r:id="rId7"/>
     <sheet name="WatchInfo" sheetId="8" r:id="rId8"/>
+    <sheet name="Colors" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,14 +37,14 @@
       </xcalcf:calcFeatures>
     </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataSignature="AMtx7mg2tOSKKfdSG8j/kh3H5OsN5FDQRQ=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId10" roundtripDataSignature="AMtx7mg2tOSKKfdSG8j/kh3H5OsN5FDQRQ=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1021" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1051" uniqueCount="252">
   <si>
     <t>Title</t>
   </si>
@@ -75,9 +76,6 @@
     <t>128 GB</t>
   </si>
   <si>
-    <t>đen</t>
-  </si>
-  <si>
     <t>OLED6.1"Super Retina XDR</t>
   </si>
   <si>
@@ -93,15 +91,6 @@
     <t>3200 mAh20 W</t>
   </si>
   <si>
-    <t>vàng</t>
-  </si>
-  <si>
-    <t>tím</t>
-  </si>
-  <si>
-    <t>bạc</t>
-  </si>
-  <si>
     <t>Apple A16 Bionic</t>
   </si>
   <si>
@@ -138,24 +127,12 @@
     <t>3700 mAh25 W</t>
   </si>
   <si>
-    <t>xám</t>
-  </si>
-  <si>
-    <t>xanh</t>
-  </si>
-  <si>
-    <t>kem</t>
-  </si>
-  <si>
     <t>OPPO Reno8</t>
   </si>
   <si>
     <t>Qualcomm Snapdragon 680</t>
   </si>
   <si>
-    <t xml:space="preserve">đen </t>
-  </si>
-  <si>
     <t>AMOLED6.4"Full HD+</t>
   </si>
   <si>
@@ -186,9 +163,6 @@
     <t>MediaTek Dimensity 920 5G (6 nm)</t>
   </si>
   <si>
-    <t>xanh lá</t>
-  </si>
-  <si>
     <t>AMOLED6.67"Full HD+</t>
   </si>
   <si>
@@ -201,9 +175,6 @@
     <t>4500 mAh120 W</t>
   </si>
   <si>
-    <t>xanh dương</t>
-  </si>
-  <si>
     <t>Samsung Galaxy Z Fold4</t>
   </si>
   <si>
@@ -255,9 +226,6 @@
     <t>i5 1240P 1.7GHz</t>
   </si>
   <si>
-    <t>16 GBLPDDR5 (Onboard)5200 MHz</t>
-  </si>
-  <si>
     <t>13.4"3.5K (3456 x 2160) - OLED</t>
   </si>
   <si>
@@ -279,9 +247,6 @@
     <t>Laptop Dell Vostro 3400</t>
   </si>
   <si>
-    <t>8 GBDDR4 2 khe (1 khe 8 GB + 1 khe rời)3200 MHz</t>
-  </si>
-  <si>
     <t>14"Full HD (1920 x 1080)</t>
   </si>
   <si>
@@ -300,9 +265,6 @@
     <t>Laptop HP Pavilion 14 dv0516TU</t>
   </si>
   <si>
-    <t>4 GBDDR4 2 khe (1 khe 4 GB + 1 khe rời)3200 MHz</t>
-  </si>
-  <si>
     <t>Card tích hợpIntel UHD</t>
   </si>
   <si>
@@ -321,9 +283,6 @@
     <t>Laptop Asus VivoBook X515EA</t>
   </si>
   <si>
-    <t>8 GBDDR4 (Onboard 4 GB + 1 khe 4 GB)3200 MHz</t>
-  </si>
-  <si>
     <t>15.6"Full HD (1920 x 1080)</t>
   </si>
   <si>
@@ -354,9 +313,6 @@
     <t>Apple Watch SE</t>
   </si>
   <si>
-    <t>Xanh đen</t>
-  </si>
-  <si>
     <t>OLED1.57 inch</t>
   </si>
   <si>
@@ -375,30 +331,18 @@
     <t>Apple</t>
   </si>
   <si>
-    <t>Trắng kem</t>
-  </si>
-  <si>
     <t>Apple Watch S5 LTE</t>
   </si>
   <si>
-    <t>Bạc</t>
-  </si>
-  <si>
     <t>Kính cường lực Sapphire</t>
   </si>
   <si>
     <t>Tính quãng đường chạyTính lượng calories tiêu thụĐếm số bước chânChế độ luyện tậpĐo nhịp tim</t>
   </si>
   <si>
-    <t>Vàng</t>
-  </si>
-  <si>
     <t>Apple Watch Series 7 GPS 41mm</t>
   </si>
   <si>
-    <t>Đen</t>
-  </si>
-  <si>
     <t>OLED1.61 inch</t>
   </si>
   <si>
@@ -411,12 +355,6 @@
     <t>Tính quãng đường chạyTính lượng calories tiêu thụĐo nồng độ oxy (SpO2)Đếm số bước chânChế độ luyện tậpTheo dõi giấc ngủĐiện tâm đồĐo nhịp tim</t>
   </si>
   <si>
-    <t>Đỏ</t>
-  </si>
-  <si>
-    <t>Xanh dương</t>
-  </si>
-  <si>
     <t>STT</t>
   </si>
   <si>
@@ -772,6 +710,96 @@
   </si>
   <si>
     <t>src/main/java/Assets/Image/phone/ip14pro/iphone-14-pro-gold-1.jpg</t>
+  </si>
+  <si>
+    <t>4 GB</t>
+  </si>
+  <si>
+    <t>Black</t>
+  </si>
+  <si>
+    <t>Grey</t>
+  </si>
+  <si>
+    <t>Yellow</t>
+  </si>
+  <si>
+    <t>Purple</t>
+  </si>
+  <si>
+    <t>Silver</t>
+  </si>
+  <si>
+    <t>Blue</t>
+  </si>
+  <si>
+    <t>Green</t>
+  </si>
+  <si>
+    <t>Cream</t>
+  </si>
+  <si>
+    <t>Gold</t>
+  </si>
+  <si>
+    <t>Red</t>
+  </si>
+  <si>
+    <t>Pink</t>
+  </si>
+  <si>
+    <t>White</t>
+  </si>
+  <si>
+    <t>Orange</t>
+  </si>
+  <si>
+    <t>DarkBlue</t>
+  </si>
+  <si>
+    <t>#FFFF00</t>
+  </si>
+  <si>
+    <t>#FF0000</t>
+  </si>
+  <si>
+    <t>#0000FF</t>
+  </si>
+  <si>
+    <t>#008000</t>
+  </si>
+  <si>
+    <t>#808080</t>
+  </si>
+  <si>
+    <t>#C0C0C0</t>
+  </si>
+  <si>
+    <t>#000000</t>
+  </si>
+  <si>
+    <t>#FFFFCC</t>
+  </si>
+  <si>
+    <t>#FFC0CB</t>
+  </si>
+  <si>
+    <t>#800080</t>
+  </si>
+  <si>
+    <t>#FFFFFF</t>
+  </si>
+  <si>
+    <t>#FFA500</t>
+  </si>
+  <si>
+    <t>#00008B</t>
+  </si>
+  <si>
+    <t>NameColor</t>
+  </si>
+  <si>
+    <t>HexColor</t>
   </si>
 </sst>
 </file>
@@ -1098,8 +1126,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R958"/>
   <sheetViews>
-    <sheetView zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1119,16 +1147,16 @@
   <sheetData>
     <row r="1" spans="1:18" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>159</v>
+        <v>138</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>161</v>
+        <v>140</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>185</v>
+        <v>164</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>0</v>
@@ -1149,28 +1177,28 @@
         <v>5</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="M1" s="7" t="s">
-        <v>160</v>
+        <v>139</v>
       </c>
       <c r="N1" s="7" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="O1" s="7" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="P1" s="9" t="s">
-        <v>186</v>
+        <v>165</v>
       </c>
       <c r="Q1" s="9" t="s">
-        <v>187</v>
+        <v>166</v>
       </c>
       <c r="R1" s="9" t="s">
-        <v>190</v>
+        <v>169</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1178,10 +1206,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="D2" s="3" t="str">
         <f>CONCATENATE(B2,C2)</f>
@@ -1191,7 +1219,7 @@
         <v>7</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>8</v>
@@ -1200,34 +1228,34 @@
         <v>9</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>10</v>
+        <v>223</v>
       </c>
       <c r="J2" s="3">
         <v>30990000</v>
       </c>
       <c r="K2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="P2" s="14">
         <v>100</v>
       </c>
       <c r="Q2" s="9" t="s">
-        <v>188</v>
+        <v>167</v>
       </c>
       <c r="R2" s="9" t="s">
-        <v>191</v>
+        <v>170</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1235,10 +1263,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="D3" s="3" t="str">
         <f t="shared" ref="D3:D38" si="0">CONCATENATE(B3,C3)</f>
@@ -1248,7 +1276,7 @@
         <v>7</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>8</v>
@@ -1257,34 +1285,34 @@
         <v>9</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>16</v>
+        <v>225</v>
       </c>
       <c r="J3" s="3">
         <v>30990000</v>
       </c>
       <c r="K3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="P3" s="14">
         <v>100</v>
       </c>
       <c r="Q3" s="9" t="s">
-        <v>188</v>
+        <v>167</v>
       </c>
       <c r="R3" s="9" t="s">
-        <v>191</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1292,10 +1320,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="D4" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1305,7 +1333,7 @@
         <v>7</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>8</v>
@@ -1314,34 +1342,34 @@
         <v>9</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>17</v>
+        <v>226</v>
       </c>
       <c r="J4" s="3">
         <v>30990000</v>
       </c>
       <c r="K4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="M4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="N4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="N4" s="2" t="s">
+      <c r="O4" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="P4" s="14">
         <v>100</v>
       </c>
       <c r="Q4" s="9" t="s">
-        <v>188</v>
+        <v>167</v>
       </c>
       <c r="R4" s="9" t="s">
-        <v>191</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1349,10 +1377,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="D5" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1362,7 +1390,7 @@
         <v>7</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>8</v>
@@ -1371,34 +1399,34 @@
         <v>9</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>18</v>
+        <v>227</v>
       </c>
       <c r="J5" s="3">
         <v>30990000</v>
       </c>
       <c r="K5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="M5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="M5" s="2" t="s">
+      <c r="N5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="N5" s="2" t="s">
+      <c r="O5" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="P5" s="14">
         <v>100</v>
       </c>
       <c r="Q5" s="9" t="s">
-        <v>188</v>
+        <v>167</v>
       </c>
       <c r="R5" s="9" t="s">
-        <v>191</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1406,10 +1434,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="D6" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1419,43 +1447,43 @@
         <v>7</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>8</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>10</v>
+        <v>223</v>
       </c>
       <c r="J6" s="3">
         <v>31990000</v>
       </c>
       <c r="K6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L6" s="4" t="s">
-        <v>12</v>
-      </c>
       <c r="M6" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="N6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="O6" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="O6" s="4" t="s">
-        <v>15</v>
       </c>
       <c r="P6" s="14">
         <v>100</v>
       </c>
       <c r="Q6" s="9" t="s">
-        <v>188</v>
+        <v>167</v>
       </c>
       <c r="R6" s="9" t="s">
-        <v>191</v>
+        <v>170</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1463,10 +1491,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="D7" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1476,43 +1504,43 @@
         <v>7</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>8</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>16</v>
+        <v>225</v>
       </c>
       <c r="J7" s="5">
         <v>32990000</v>
       </c>
       <c r="K7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L7" s="4" t="s">
-        <v>12</v>
-      </c>
       <c r="M7" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="N7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="O7" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="O7" s="4" t="s">
-        <v>15</v>
       </c>
       <c r="P7" s="14">
         <v>100</v>
       </c>
       <c r="Q7" s="9" t="s">
-        <v>188</v>
+        <v>167</v>
       </c>
       <c r="R7" s="9" t="s">
-        <v>191</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1520,10 +1548,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="D8" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1533,43 +1561,43 @@
         <v>7</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>8</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>17</v>
+        <v>226</v>
       </c>
       <c r="J8" s="3">
         <v>31990000</v>
       </c>
       <c r="K8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L8" s="4" t="s">
-        <v>12</v>
-      </c>
       <c r="M8" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="N8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="O8" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="O8" s="4" t="s">
-        <v>15</v>
       </c>
       <c r="P8" s="14">
         <v>100</v>
       </c>
       <c r="Q8" s="9" t="s">
-        <v>188</v>
+        <v>167</v>
       </c>
       <c r="R8" s="9" t="s">
-        <v>191</v>
+        <v>170</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1577,10 +1605,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="D9" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1590,43 +1618,43 @@
         <v>7</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>8</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>18</v>
+        <v>227</v>
       </c>
       <c r="J9" s="5">
         <v>32990000</v>
       </c>
       <c r="K9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L9" s="4" t="s">
-        <v>12</v>
-      </c>
       <c r="M9" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="N9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="O9" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="O9" s="4" t="s">
-        <v>15</v>
       </c>
       <c r="P9" s="14">
         <v>100</v>
       </c>
       <c r="Q9" s="9" t="s">
-        <v>188</v>
+        <v>167</v>
       </c>
       <c r="R9" s="9" t="s">
-        <v>191</v>
+        <v>170</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1634,10 +1662,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="D10" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1647,43 +1675,43 @@
         <v>7</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>8</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>10</v>
+        <v>223</v>
       </c>
       <c r="J10" s="3">
         <v>37590000</v>
       </c>
       <c r="K10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L10" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L10" s="4" t="s">
-        <v>12</v>
-      </c>
       <c r="M10" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="N10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="O10" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="O10" s="4" t="s">
-        <v>15</v>
       </c>
       <c r="P10" s="14">
         <v>100</v>
       </c>
       <c r="Q10" s="9" t="s">
-        <v>188</v>
+        <v>167</v>
       </c>
       <c r="R10" s="9" t="s">
-        <v>191</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1691,10 +1719,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>154</v>
+        <v>133</v>
       </c>
       <c r="D11" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1704,43 +1732,43 @@
         <v>7</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>8</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>16</v>
+        <v>225</v>
       </c>
       <c r="J11" s="3">
         <v>37590000</v>
       </c>
       <c r="K11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L11" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L11" s="4" t="s">
-        <v>12</v>
-      </c>
       <c r="M11" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="N11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="O11" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="O11" s="4" t="s">
-        <v>15</v>
       </c>
       <c r="P11" s="14">
         <v>100</v>
       </c>
       <c r="Q11" s="9" t="s">
-        <v>188</v>
+        <v>167</v>
       </c>
       <c r="R11" s="9" t="s">
-        <v>191</v>
+        <v>170</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1748,10 +1776,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>155</v>
+        <v>134</v>
       </c>
       <c r="D12" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1761,43 +1789,43 @@
         <v>7</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>8</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>17</v>
+        <v>226</v>
       </c>
       <c r="J12" s="3">
         <v>37590000</v>
       </c>
       <c r="K12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L12" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L12" s="4" t="s">
-        <v>12</v>
-      </c>
       <c r="M12" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="N12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="O12" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="O12" s="4" t="s">
-        <v>15</v>
       </c>
       <c r="P12" s="14">
         <v>100</v>
       </c>
       <c r="Q12" s="9" t="s">
-        <v>188</v>
+        <v>167</v>
       </c>
       <c r="R12" s="9" t="s">
-        <v>191</v>
+        <v>170</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1805,10 +1833,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="D13" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1818,43 +1846,43 @@
         <v>7</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>8</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>18</v>
+        <v>227</v>
       </c>
       <c r="J13" s="3">
         <v>37590000</v>
       </c>
       <c r="K13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L13" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L13" s="4" t="s">
-        <v>12</v>
-      </c>
       <c r="M13" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="N13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="O13" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="O13" s="4" t="s">
-        <v>15</v>
       </c>
       <c r="P13" s="14">
         <v>100</v>
       </c>
       <c r="Q13" s="9" t="s">
-        <v>188</v>
+        <v>167</v>
       </c>
       <c r="R13" s="9" t="s">
-        <v>191</v>
+        <v>170</v>
       </c>
     </row>
     <row r="14" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1862,10 +1890,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>157</v>
+        <v>136</v>
       </c>
       <c r="D14" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1875,43 +1903,43 @@
         <v>7</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>8</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>10</v>
+        <v>223</v>
       </c>
       <c r="J14" s="3">
         <v>42590000</v>
       </c>
       <c r="K14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L14" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L14" s="4" t="s">
-        <v>12</v>
-      </c>
       <c r="M14" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="N14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="O14" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="O14" s="4" t="s">
-        <v>15</v>
       </c>
       <c r="P14" s="14">
         <v>100</v>
       </c>
       <c r="Q14" s="9" t="s">
-        <v>188</v>
+        <v>167</v>
       </c>
       <c r="R14" s="9" t="s">
-        <v>191</v>
+        <v>170</v>
       </c>
     </row>
     <row r="15" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1919,10 +1947,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>158</v>
+        <v>137</v>
       </c>
       <c r="D15" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1932,43 +1960,43 @@
         <v>7</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>8</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>16</v>
+        <v>225</v>
       </c>
       <c r="J15" s="3">
         <v>42590000</v>
       </c>
       <c r="K15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L15" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L15" s="4" t="s">
-        <v>12</v>
-      </c>
       <c r="M15" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="N15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="O15" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="O15" s="4" t="s">
-        <v>15</v>
       </c>
       <c r="P15" s="14">
         <v>100</v>
       </c>
       <c r="Q15" s="9" t="s">
-        <v>188</v>
+        <v>167</v>
       </c>
       <c r="R15" s="9" t="s">
-        <v>191</v>
+        <v>170</v>
       </c>
     </row>
     <row r="16" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1976,10 +2004,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>162</v>
+        <v>141</v>
       </c>
       <c r="D16" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1989,43 +2017,43 @@
         <v>7</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G16" s="3" t="s">
         <v>8</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>17</v>
+        <v>226</v>
       </c>
       <c r="J16" s="3">
         <v>42590000</v>
       </c>
       <c r="K16" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L16" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L16" s="4" t="s">
-        <v>12</v>
-      </c>
       <c r="M16" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="N16" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="O16" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="O16" s="4" t="s">
-        <v>15</v>
       </c>
       <c r="P16" s="14">
         <v>100</v>
       </c>
       <c r="Q16" s="9" t="s">
-        <v>188</v>
+        <v>167</v>
       </c>
       <c r="R16" s="9" t="s">
-        <v>191</v>
+        <v>170</v>
       </c>
     </row>
     <row r="17" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2033,10 +2061,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>163</v>
+        <v>142</v>
       </c>
       <c r="D17" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2046,43 +2074,43 @@
         <v>7</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>8</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>18</v>
+        <v>227</v>
       </c>
       <c r="J17" s="5">
         <v>41590000</v>
       </c>
       <c r="K17" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L17" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L17" s="4" t="s">
-        <v>12</v>
-      </c>
       <c r="M17" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="N17" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="O17" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="O17" s="4" t="s">
-        <v>15</v>
       </c>
       <c r="P17" s="14">
         <v>100</v>
       </c>
       <c r="Q17" s="9" t="s">
-        <v>188</v>
+        <v>167</v>
       </c>
       <c r="R17" s="9" t="s">
-        <v>191</v>
+        <v>170</v>
       </c>
     </row>
     <row r="18" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2090,56 +2118,56 @@
         <v>17</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
       <c r="D18" s="3" t="str">
         <f t="shared" si="0"/>
         <v>00020017</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>9</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>16</v>
+        <v>225</v>
       </c>
       <c r="J18" s="3">
         <v>20590000</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="M18" s="4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="N18" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="O18" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="P18" s="14">
         <v>100</v>
       </c>
       <c r="Q18" s="9" t="s">
-        <v>189</v>
+        <v>168</v>
       </c>
       <c r="R18" s="9" t="s">
-        <v>192</v>
+        <v>171</v>
       </c>
     </row>
     <row r="19" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2147,56 +2175,56 @@
         <v>18</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>165</v>
+        <v>144</v>
       </c>
       <c r="D19" s="3" t="str">
         <f t="shared" si="0"/>
         <v>00020018</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="H19" s="3" t="s">
         <v>9</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>31</v>
+        <v>224</v>
       </c>
       <c r="J19" s="3">
         <v>20590000</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="M19" s="4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="N19" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="O19" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="P19" s="14">
         <v>100</v>
       </c>
       <c r="Q19" s="9" t="s">
-        <v>189</v>
+        <v>168</v>
       </c>
       <c r="R19" s="9" t="s">
-        <v>192</v>
+        <v>171</v>
       </c>
     </row>
     <row r="20" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2204,56 +2232,56 @@
         <v>19</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>166</v>
+        <v>145</v>
       </c>
       <c r="D20" s="3" t="str">
         <f t="shared" si="0"/>
         <v>00020019</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>9</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>17</v>
+        <v>226</v>
       </c>
       <c r="J20" s="3">
         <v>20590000</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="L20" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="M20" s="4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="N20" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="O20" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="P20" s="14">
         <v>100</v>
       </c>
       <c r="Q20" s="9" t="s">
-        <v>189</v>
+        <v>168</v>
       </c>
       <c r="R20" s="9" t="s">
-        <v>192</v>
+        <v>171</v>
       </c>
     </row>
     <row r="21" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2261,56 +2289,56 @@
         <v>20</v>
       </c>
       <c r="B21" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="C21" s="11" t="s">
         <v>146</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>167</v>
       </c>
       <c r="D21" s="3" t="str">
         <f t="shared" si="0"/>
         <v>00020020</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>9</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>32</v>
+        <v>228</v>
       </c>
       <c r="J21" s="3">
         <v>20590000</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="M21" s="4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="N21" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="O21" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="P21" s="14">
         <v>100</v>
       </c>
       <c r="Q21" s="9" t="s">
-        <v>189</v>
+        <v>168</v>
       </c>
       <c r="R21" s="9" t="s">
-        <v>192</v>
+        <v>171</v>
       </c>
     </row>
     <row r="22" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2318,56 +2346,56 @@
         <v>21</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>168</v>
+        <v>147</v>
       </c>
       <c r="D22" s="3" t="str">
         <f t="shared" si="0"/>
         <v>00020021</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>31</v>
+        <v>224</v>
       </c>
       <c r="J22" s="3">
         <v>22590000</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="L22" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="M22" s="4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="N22" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="O22" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="P22" s="14">
         <v>100</v>
       </c>
       <c r="Q22" s="9" t="s">
-        <v>189</v>
+        <v>168</v>
       </c>
       <c r="R22" s="9" t="s">
-        <v>192</v>
+        <v>171</v>
       </c>
     </row>
     <row r="23" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2375,56 +2403,56 @@
         <v>22</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>169</v>
+        <v>148</v>
       </c>
       <c r="D23" s="3" t="str">
         <f t="shared" si="0"/>
         <v>00020022</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>17</v>
+        <v>226</v>
       </c>
       <c r="J23" s="3">
         <v>22590000</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="M23" s="4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="N23" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="O23" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="P23" s="14">
         <v>100</v>
       </c>
       <c r="Q23" s="9" t="s">
-        <v>189</v>
+        <v>168</v>
       </c>
       <c r="R23" s="9" t="s">
-        <v>192</v>
+        <v>171</v>
       </c>
     </row>
     <row r="24" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2432,56 +2460,56 @@
         <v>23</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>170</v>
+        <v>149</v>
       </c>
       <c r="D24" s="3" t="str">
         <f t="shared" si="0"/>
         <v>00020023</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>32</v>
+        <v>228</v>
       </c>
       <c r="J24" s="3">
         <v>22590000</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="L24" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="M24" s="4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="N24" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="O24" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="P24" s="14">
         <v>100</v>
       </c>
       <c r="Q24" s="9" t="s">
-        <v>189</v>
+        <v>168</v>
       </c>
       <c r="R24" s="9" t="s">
-        <v>192</v>
+        <v>171</v>
       </c>
     </row>
     <row r="25" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2489,56 +2517,56 @@
         <v>24</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>171</v>
+        <v>150</v>
       </c>
       <c r="D25" s="3" t="str">
         <f t="shared" si="0"/>
         <v>00020024</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>33</v>
+        <v>230</v>
       </c>
       <c r="J25" s="3">
         <v>22590000</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="L25" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="M25" s="4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="N25" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="O25" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="P25" s="14">
         <v>100</v>
       </c>
       <c r="Q25" s="9" t="s">
-        <v>189</v>
+        <v>168</v>
       </c>
       <c r="R25" s="9" t="s">
-        <v>192</v>
+        <v>171</v>
       </c>
     </row>
     <row r="26" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2546,56 +2574,56 @@
         <v>25</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>172</v>
+        <v>151</v>
       </c>
       <c r="D26" s="3" t="str">
         <f t="shared" si="0"/>
         <v>00030025</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>36</v>
+        <v>223</v>
       </c>
       <c r="J26" s="3">
         <v>8690000</v>
       </c>
       <c r="K26" s="4" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="L26" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="M26" s="4" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="N26" s="4" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="O26" s="4" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="P26" s="14">
         <v>100</v>
       </c>
       <c r="Q26" s="9" t="s">
-        <v>189</v>
+        <v>168</v>
       </c>
       <c r="R26" s="9" t="s">
-        <v>193</v>
+        <v>172</v>
       </c>
     </row>
     <row r="27" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2603,56 +2631,56 @@
         <v>26</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>173</v>
+        <v>152</v>
       </c>
       <c r="D27" s="3" t="str">
         <f t="shared" si="0"/>
         <v>00030026</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>16</v>
+        <v>225</v>
       </c>
       <c r="J27" s="3">
         <v>8690000</v>
       </c>
       <c r="K27" s="4" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="L27" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="M27" s="4" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="N27" s="4" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="O27" s="4" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="P27" s="14">
         <v>100</v>
       </c>
       <c r="Q27" s="9" t="s">
-        <v>189</v>
+        <v>168</v>
       </c>
       <c r="R27" s="9" t="s">
-        <v>193</v>
+        <v>172</v>
       </c>
     </row>
     <row r="28" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2660,56 +2688,56 @@
         <v>27</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>174</v>
+        <v>153</v>
       </c>
       <c r="D28" s="3" t="str">
         <f t="shared" si="0"/>
         <v>00040027</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>36</v>
+        <v>223</v>
       </c>
       <c r="J28" s="3">
         <v>10090000</v>
       </c>
       <c r="K28" s="4" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="L28" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="M28" s="4" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="N28" s="4" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="O28" s="4" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="P28" s="14">
         <v>100</v>
       </c>
       <c r="Q28" s="9" t="s">
-        <v>189</v>
+        <v>168</v>
       </c>
       <c r="R28" s="9" t="s">
-        <v>193</v>
+        <v>172</v>
       </c>
     </row>
     <row r="29" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2717,56 +2745,56 @@
         <v>28</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>175</v>
+        <v>154</v>
       </c>
       <c r="D29" s="3" t="str">
         <f t="shared" si="0"/>
         <v>00040028</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>16</v>
+        <v>225</v>
       </c>
       <c r="J29" s="3">
         <v>10090000</v>
       </c>
       <c r="K29" s="4" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="L29" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="M29" s="4" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="N29" s="4" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="O29" s="4" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="P29" s="14">
         <v>100</v>
       </c>
       <c r="Q29" s="9" t="s">
-        <v>189</v>
+        <v>168</v>
       </c>
       <c r="R29" s="9" t="s">
-        <v>193</v>
+        <v>172</v>
       </c>
     </row>
     <row r="30" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2774,56 +2802,56 @@
         <v>29</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>176</v>
+        <v>155</v>
       </c>
       <c r="D30" s="3" t="str">
         <f t="shared" si="0"/>
         <v>00050029</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>47</v>
+        <v>229</v>
       </c>
       <c r="J30" s="3">
         <v>8890000</v>
       </c>
       <c r="K30" s="4" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="L30" s="4" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="M30" s="4" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="N30" s="4" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="O30" s="4" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="P30" s="14">
         <v>100</v>
       </c>
       <c r="Q30" s="9" t="s">
-        <v>189</v>
+        <v>168</v>
       </c>
       <c r="R30" s="9" t="s">
-        <v>193</v>
+        <v>172</v>
       </c>
     </row>
     <row r="31" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2831,56 +2859,56 @@
         <v>30</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>177</v>
+        <v>156</v>
       </c>
       <c r="D31" s="3" t="str">
         <f t="shared" si="0"/>
         <v>00050030</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>52</v>
+        <v>228</v>
       </c>
       <c r="J31" s="3">
         <v>8890000</v>
       </c>
       <c r="K31" s="4" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="L31" s="4" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="M31" s="4" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="N31" s="4" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="O31" s="4" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="P31" s="14">
         <v>100</v>
       </c>
       <c r="Q31" s="9" t="s">
-        <v>189</v>
+        <v>168</v>
       </c>
       <c r="R31" s="9" t="s">
-        <v>193</v>
+        <v>172</v>
       </c>
     </row>
     <row r="32" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2888,56 +2916,56 @@
         <v>31</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>178</v>
+        <v>157</v>
       </c>
       <c r="D32" s="3" t="str">
         <f t="shared" si="0"/>
         <v>00050031</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>31</v>
+        <v>224</v>
       </c>
       <c r="J32" s="3">
         <v>8890000</v>
       </c>
       <c r="K32" s="4" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="L32" s="4" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="M32" s="4" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="N32" s="4" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="O32" s="4" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="P32" s="14">
         <v>100</v>
       </c>
       <c r="Q32" s="9" t="s">
-        <v>189</v>
+        <v>168</v>
       </c>
       <c r="R32" s="9" t="s">
-        <v>193</v>
+        <v>172</v>
       </c>
     </row>
     <row r="33" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2945,56 +2973,56 @@
         <v>32</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>179</v>
+        <v>158</v>
       </c>
       <c r="D33" s="3" t="str">
         <f t="shared" si="0"/>
         <v>00060032</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>32</v>
+        <v>228</v>
       </c>
       <c r="J33" s="3">
         <v>36390000</v>
       </c>
       <c r="K33" s="4" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="L33" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="M33" s="4" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="N33" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="O33" s="4" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="P33" s="14">
         <v>100</v>
       </c>
       <c r="Q33" s="9" t="s">
-        <v>189</v>
+        <v>168</v>
       </c>
       <c r="R33" s="9" t="s">
-        <v>191</v>
+        <v>170</v>
       </c>
     </row>
     <row r="34" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3002,56 +3030,56 @@
         <v>33</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>180</v>
+        <v>159</v>
       </c>
       <c r="D34" s="3" t="str">
         <f t="shared" si="0"/>
         <v>00060033</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I34" s="3" t="s">
-        <v>33</v>
+        <v>18</v>
+      </c>
+      <c r="I34" s="6" t="s">
+        <v>230</v>
       </c>
       <c r="J34" s="3">
         <v>36390000</v>
       </c>
       <c r="K34" s="4" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="L34" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="M34" s="4" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="N34" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="O34" s="4" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="P34" s="14">
         <v>100</v>
       </c>
       <c r="Q34" s="9" t="s">
-        <v>189</v>
+        <v>168</v>
       </c>
       <c r="R34" s="9" t="s">
-        <v>191</v>
+        <v>170</v>
       </c>
     </row>
     <row r="35" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3059,56 +3087,56 @@
         <v>34</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>181</v>
+        <v>160</v>
       </c>
       <c r="D35" s="3" t="str">
         <f t="shared" si="0"/>
         <v>00060034</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>10</v>
+        <v>223</v>
       </c>
       <c r="J35" s="3">
         <v>36390000</v>
       </c>
       <c r="K35" s="4" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="L35" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="M35" s="4" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="N35" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="O35" s="4" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="P35" s="14">
         <v>100</v>
       </c>
       <c r="Q35" s="9" t="s">
-        <v>189</v>
+        <v>168</v>
       </c>
       <c r="R35" s="9" t="s">
-        <v>191</v>
+        <v>170</v>
       </c>
     </row>
     <row r="36" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3116,56 +3144,56 @@
         <v>35</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>182</v>
+        <v>161</v>
       </c>
       <c r="D36" s="3" t="str">
         <f t="shared" si="0"/>
         <v>00060035</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>32</v>
+        <v>228</v>
       </c>
       <c r="J36" s="3">
         <v>39890000</v>
       </c>
       <c r="K36" s="4" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="L36" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="M36" s="4" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="N36" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="O36" s="4" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="P36" s="14">
         <v>100</v>
       </c>
       <c r="Q36" s="9" t="s">
-        <v>189</v>
+        <v>168</v>
       </c>
       <c r="R36" s="9" t="s">
-        <v>191</v>
+        <v>170</v>
       </c>
     </row>
     <row r="37" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3173,56 +3201,56 @@
         <v>36</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>183</v>
+        <v>162</v>
       </c>
       <c r="D37" s="3" t="str">
         <f t="shared" si="0"/>
         <v>00060036</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I37" s="3" t="s">
-        <v>33</v>
+        <v>19</v>
+      </c>
+      <c r="I37" s="6" t="s">
+        <v>230</v>
       </c>
       <c r="J37" s="3">
         <v>39890000</v>
       </c>
       <c r="K37" s="4" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="L37" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="M37" s="4" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="N37" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="O37" s="4" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="P37" s="14">
         <v>100</v>
       </c>
       <c r="Q37" s="9" t="s">
-        <v>189</v>
+        <v>168</v>
       </c>
       <c r="R37" s="9" t="s">
-        <v>191</v>
+        <v>170</v>
       </c>
     </row>
     <row r="38" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3230,56 +3258,56 @@
         <v>37</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>184</v>
+        <v>163</v>
       </c>
       <c r="D38" s="3" t="str">
         <f t="shared" si="0"/>
         <v>00060037</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>10</v>
+        <v>223</v>
       </c>
       <c r="J38" s="3">
         <v>39890000</v>
       </c>
       <c r="K38" s="4" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="L38" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="M38" s="4" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="N38" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="O38" s="4" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="P38" s="14">
         <v>100</v>
       </c>
       <c r="Q38" s="9" t="s">
-        <v>189</v>
+        <v>168</v>
       </c>
       <c r="R38" s="9" t="s">
-        <v>191</v>
+        <v>170</v>
       </c>
     </row>
     <row r="39" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4230,205 +4258,205 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>159</v>
+        <v>138</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>160</v>
+        <v>139</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>187</v>
+        <v>166</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>190</v>
+        <v>169</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="H2" s="9" t="s">
-        <v>188</v>
+        <v>167</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>191</v>
+        <v>170</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>29</v>
-      </c>
       <c r="F3" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>189</v>
+        <v>168</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>192</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>189</v>
+        <v>168</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>193</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>189</v>
+        <v>168</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>193</v>
+        <v>172</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>189</v>
+        <v>168</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>193</v>
+        <v>172</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>189</v>
+        <v>168</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>191</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -4440,8 +4468,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{240E1A88-5716-43C5-A9B9-75B9DFFF2174}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -4453,21 +4481,21 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>143</v>
+        <v>122</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>228</v>
+        <v>207</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>7</v>
@@ -4476,189 +4504,189 @@
         <v>1</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>242</v>
+        <v>221</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>231</v>
+        <v>210</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>232</v>
+        <v>211</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C5">
         <v>3</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>233</v>
+        <v>212</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C6">
         <v>4</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>234</v>
+        <v>213</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>230</v>
+        <v>209</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>235</v>
+        <v>214</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C9">
         <v>5</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>229</v>
+        <v>208</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="C10">
         <v>5</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>236</v>
+        <v>215</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
-        <v>154</v>
+        <v>133</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="C11">
         <v>6</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>237</v>
+        <v>216</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
-        <v>155</v>
+        <v>134</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="C12">
         <v>7</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>238</v>
+        <v>217</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>239</v>
+        <v>218</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
-        <v>157</v>
+        <v>136</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>240</v>
+        <v>219</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
-        <v>158</v>
+        <v>137</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>241</v>
+        <v>220</v>
       </c>
     </row>
   </sheetData>
@@ -4684,13 +4712,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -4698,10 +4726,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>133</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -4709,10 +4737,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -4720,10 +4748,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -4731,10 +4759,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -4742,10 +4770,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>133</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -4753,10 +4781,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>133</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -4764,10 +4792,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>142</v>
+        <v>121</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -4779,8 +4807,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:R911"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4804,16 +4832,16 @@
   <sheetData>
     <row r="1" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>159</v>
+        <v>138</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>161</v>
+        <v>140</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>185</v>
+        <v>164</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>0</v>
@@ -4828,34 +4856,34 @@
         <v>1</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="J1" s="6" t="s">
         <v>3</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>201</v>
+        <v>180</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>187</v>
+        <v>166</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>190</v>
+        <v>169</v>
       </c>
       <c r="P1" s="6" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>203</v>
+        <v>182</v>
       </c>
       <c r="R1" s="10" t="s">
-        <v>186</v>
+        <v>165</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -4863,50 +4891,50 @@
         <v>1</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="D2" s="17" t="str">
         <f>CONCATENATE(B2,C2)</f>
         <v>00070001</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>10</v>
+        <v>223</v>
       </c>
       <c r="G2" s="6">
         <v>29590000</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>217</v>
+        <v>196</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>225</v>
+        <v>204</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="P2" s="6" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="Q2" s="6">
         <v>2022</v>
@@ -4920,50 +4948,50 @@
         <v>2</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="D3" s="17" t="str">
         <f t="shared" ref="D3:D13" si="0">CONCATENATE(B3,C3)</f>
         <v>00070002</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>194</v>
+        <v>173</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>31</v>
+        <v>224</v>
       </c>
       <c r="G3" s="6">
         <v>29590000</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>217</v>
+        <v>196</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>225</v>
+        <v>204</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="O3" s="6" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="P3" s="6" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="Q3" s="6">
         <v>2022</v>
@@ -4977,50 +5005,50 @@
         <v>3</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="D4" s="17" t="str">
         <f t="shared" si="0"/>
         <v>00070003</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>195</v>
+        <v>174</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>16</v>
+        <v>225</v>
       </c>
       <c r="G4" s="15">
         <v>28990000</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>217</v>
+        <v>196</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>225</v>
+        <v>204</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="N4" s="6" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="O4" s="6" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="P4" s="6" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="Q4" s="6">
         <v>2022</v>
@@ -5034,50 +5062,50 @@
         <v>4</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="D5" s="17" t="str">
         <f t="shared" si="0"/>
         <v>00070004</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>196</v>
+        <v>175</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>18</v>
+        <v>227</v>
       </c>
       <c r="G5" s="6">
         <v>29590000</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>217</v>
+        <v>196</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>225</v>
+        <v>204</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="N5" s="6" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="O5" s="6" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="P5" s="6" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="Q5" s="6">
         <v>2022</v>
@@ -5091,50 +5119,50 @@
         <v>5</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="D6" s="17" t="str">
         <f t="shared" si="0"/>
         <v>00070005</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>197</v>
+        <v>176</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>10</v>
+        <v>223</v>
       </c>
       <c r="G6" s="15">
         <v>35590000</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>217</v>
+        <v>196</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>225</v>
+        <v>204</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="N6" s="6" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="O6" s="6" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="P6" s="6" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="Q6" s="6">
         <v>2022</v>
@@ -5148,50 +5176,50 @@
         <v>6</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="D7" s="17" t="str">
         <f t="shared" si="0"/>
         <v>00070006</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>31</v>
+        <v>224</v>
       </c>
       <c r="G7" s="6">
         <v>34990000</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>217</v>
+        <v>196</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>225</v>
+        <v>204</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="M7" s="6" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="N7" s="6" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="O7" s="6" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="P7" s="6" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="Q7" s="6">
         <v>2022</v>
@@ -5205,50 +5233,50 @@
         <v>7</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="D8" s="17" t="str">
         <f t="shared" si="0"/>
         <v>00070007</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>199</v>
+        <v>178</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>18</v>
+        <v>227</v>
       </c>
       <c r="G8" s="6">
         <v>34990000</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>217</v>
+        <v>196</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>225</v>
+        <v>204</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="N8" s="6" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="O8" s="6" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="P8" s="6" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="Q8" s="6">
         <v>2022</v>
@@ -5262,50 +5290,50 @@
         <v>8</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="D9" s="17" t="str">
         <f t="shared" si="0"/>
         <v>00070008</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>200</v>
+        <v>179</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>16</v>
+        <v>225</v>
       </c>
       <c r="G9" s="6">
         <v>34990000</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>217</v>
+        <v>196</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>225</v>
+        <v>204</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="N9" s="6" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="O9" s="6" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="P9" s="6" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="Q9" s="6">
         <v>2022</v>
@@ -5319,50 +5347,50 @@
         <v>9</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="D10" s="17" t="str">
         <f t="shared" si="0"/>
         <v>00080009</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>18</v>
+        <v>227</v>
       </c>
       <c r="G10" s="6">
         <v>46990000</v>
       </c>
       <c r="H10" s="16" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>225</v>
+        <v>204</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="L10" s="6" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="M10" s="6" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="N10" s="6" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="O10" s="6" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="P10" s="6" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="Q10" s="6">
         <v>2022</v>
@@ -5376,50 +5404,50 @@
         <v>10</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>154</v>
+        <v>133</v>
       </c>
       <c r="D11" s="17" t="str">
         <f t="shared" si="0"/>
         <v>00090010</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>10</v>
+        <v>223</v>
       </c>
       <c r="G11" s="6">
         <v>18590000</v>
       </c>
       <c r="H11" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="L11" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="M11" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="I11" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="J11" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="K11" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="L11" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="M11" s="6" t="s">
-        <v>81</v>
-      </c>
       <c r="N11" s="6" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="O11" s="6" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="P11" s="6" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="Q11" s="6">
         <v>2022</v>
@@ -5433,50 +5461,50 @@
         <v>11</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>154</v>
+        <v>133</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>155</v>
+        <v>134</v>
       </c>
       <c r="D12" s="17" t="str">
         <f t="shared" si="0"/>
         <v>00100011</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>18</v>
+        <v>227</v>
       </c>
       <c r="G12" s="6">
         <v>12090000</v>
       </c>
       <c r="H12" s="16" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>85</v>
+        <v>222</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>227</v>
+        <v>206</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="L12" s="6" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="M12" s="6" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="N12" s="6" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="O12" s="6" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="P12" s="6" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="Q12" s="6">
         <v>2021</v>
@@ -5490,50 +5518,50 @@
         <v>12</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>155</v>
+        <v>134</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="D13" s="17" t="str">
         <f t="shared" si="0"/>
         <v>00110012</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>10</v>
+        <v>223</v>
       </c>
       <c r="G13" s="6">
         <v>17790000</v>
       </c>
       <c r="H13" s="16" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>92</v>
+        <v>22</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>226</v>
+        <v>205</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="L13" s="6" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="M13" s="6" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="N13" s="6" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="O13" s="6" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="P13" s="6" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="Q13" s="6">
         <v>2021</v>
@@ -6451,7 +6479,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC274BC7-F0EA-4A50-A15D-196FC8F964D8}">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
@@ -6469,28 +6497,28 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
-        <v>159</v>
+        <v>138</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>187</v>
+        <v>166</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>190</v>
+        <v>169</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>205</v>
+        <v>184</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>160</v>
+        <v>139</v>
       </c>
       <c r="I1" s="10" t="s">
         <v>1</v>
@@ -6498,147 +6526,147 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>204</v>
+        <v>183</v>
       </c>
       <c r="G2" t="s">
-        <v>206</v>
+        <v>185</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>216</v>
+        <v>195</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>217</v>
+        <v>196</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>208</v>
+        <v>187</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>215</v>
+        <v>194</v>
       </c>
       <c r="I3" t="s">
-        <v>224</v>
+        <v>203</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>209</v>
+        <v>188</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>210</v>
+        <v>189</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>215</v>
+        <v>194</v>
       </c>
       <c r="I4" t="s">
-        <v>224</v>
+        <v>203</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
-        <v>154</v>
+        <v>133</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>211</v>
+        <v>190</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>212</v>
+        <v>191</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>215</v>
+        <v>194</v>
       </c>
       <c r="I5" t="s">
-        <v>224</v>
+        <v>203</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
-        <v>155</v>
+        <v>134</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>213</v>
+        <v>192</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>214</v>
+        <v>193</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>215</v>
+        <v>194</v>
       </c>
       <c r="I6" t="s">
-        <v>224</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -6651,7 +6679,7 @@
   <dimension ref="A1:O994"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6671,16 +6699,16 @@
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
-        <v>159</v>
+        <v>138</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>161</v>
+        <v>140</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>185</v>
+        <v>164</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>5</v>
@@ -6692,412 +6720,412 @@
         <v>6</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="M1" s="10" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="N1" s="10" t="s">
-        <v>186</v>
+        <v>165</v>
       </c>
       <c r="O1" s="10" t="s">
-        <v>220</v>
+        <v>199</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="C2" s="17" t="str">
         <f>CONCATENATE(A2,B2)</f>
         <v>00120001</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="E2" s="6">
         <v>6990000</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>103</v>
+        <v>223</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="M2" s="10" t="s">
-        <v>218</v>
+        <v>197</v>
       </c>
       <c r="N2">
         <v>38</v>
       </c>
       <c r="O2" s="8" t="s">
-        <v>223</v>
+        <v>202</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="C3" s="17" t="str">
         <f t="shared" ref="C3:C9" si="0">CONCATENATE(A3,B3)</f>
         <v>00120002</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="E3" s="6">
         <v>6990000</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>110</v>
+        <v>230</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="M3" s="10" t="s">
-        <v>218</v>
+        <v>197</v>
       </c>
       <c r="N3">
         <v>38</v>
       </c>
       <c r="O3" s="8" t="s">
-        <v>223</v>
+        <v>202</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
-        <v>157</v>
+        <v>136</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="C4" s="17" t="str">
         <f t="shared" si="0"/>
         <v>00130003</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="E4" s="6">
         <v>16990000</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>112</v>
+        <v>227</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="M4" s="10" t="s">
-        <v>218</v>
+        <v>197</v>
       </c>
       <c r="N4">
         <v>38</v>
       </c>
       <c r="O4" s="8" t="s">
-        <v>222</v>
+        <v>201</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
-        <v>157</v>
+        <v>136</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="C5" s="17" t="str">
         <f t="shared" si="0"/>
         <v>00130004</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="E5" s="6">
         <v>16990000</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>115</v>
+        <v>231</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="M5" s="10" t="s">
-        <v>218</v>
+        <v>197</v>
       </c>
       <c r="N5">
         <v>38</v>
       </c>
       <c r="O5" s="8" t="s">
-        <v>222</v>
+        <v>201</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
-        <v>158</v>
+        <v>137</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="C6" s="17" t="str">
         <f t="shared" si="0"/>
         <v>00140005</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="E6" s="6">
         <v>9990000</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>117</v>
+        <v>223</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="M6" s="10" t="s">
-        <v>218</v>
+        <v>197</v>
       </c>
       <c r="N6">
         <v>38</v>
       </c>
       <c r="O6" s="8" t="s">
-        <v>221</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
-        <v>158</v>
+        <v>137</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="C7" s="17" t="str">
         <f t="shared" si="0"/>
         <v>00140006</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="E7" s="6">
         <v>9990000</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>115</v>
+        <v>225</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="M7" s="10" t="s">
-        <v>218</v>
+        <v>197</v>
       </c>
       <c r="N7">
         <v>38</v>
       </c>
       <c r="O7" s="8" t="s">
-        <v>221</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
-        <v>158</v>
+        <v>137</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="C8" s="17" t="str">
         <f t="shared" si="0"/>
         <v>00140007</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="E8" s="6">
         <v>9990000</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>122</v>
+        <v>232</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="M8" s="10" t="s">
-        <v>218</v>
+        <v>197</v>
       </c>
       <c r="N8">
         <v>38</v>
       </c>
       <c r="O8" s="8" t="s">
-        <v>221</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
-        <v>158</v>
+        <v>137</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="C9" s="17" t="str">
         <f t="shared" si="0"/>
         <v>00140008</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="E9" s="6">
         <v>9990000</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>123</v>
+        <v>228</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="M9" s="10" t="s">
-        <v>218</v>
+        <v>197</v>
       </c>
       <c r="N9">
         <v>38</v>
       </c>
       <c r="O9" s="8" t="s">
-        <v>221</v>
+        <v>200</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -8111,70 +8139,208 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
-        <v>159</v>
+        <v>138</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>218</v>
+        <v>197</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
-        <v>157</v>
+        <v>136</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>218</v>
+        <v>197</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
-        <v>158</v>
+        <v>137</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>218</v>
+        <v>197</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40BBCC0D-3115-4A7D-A167-3F17E9794F4D}">
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="B2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="B5" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="B8" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="B9" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="B10" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="B11" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="B12" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="B13" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="B14" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="B15" t="s">
+        <v>237</v>
       </c>
     </row>
   </sheetData>

--- a/DataLuvaShop/phone_laptop_watch_data_tth.xlsx
+++ b/DataLuvaShop/phone_laptop_watch_data_tth.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/58dcdd4e14744d6b/LuvaTech/DataLuvaShop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="137" documentId="13_ncr:1_{E2E5F23B-101F-4AFB-AFA1-F71EB972B43A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{321F4FBE-57B1-47C6-AF97-CFCDBCEFB617}"/>
+  <xr:revisionPtr revIDLastSave="190" documentId="13_ncr:1_{E2E5F23B-101F-4AFB-AFA1-F71EB972B43A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F42753BA-2FA0-4839-A973-62FB13C2133F}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-16245" yWindow="2835" windowWidth="16230" windowHeight="9225" firstSheet="5" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Phone" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,8 @@
     <sheet name="Watch" sheetId="3" r:id="rId7"/>
     <sheet name="WatchInfo" sheetId="8" r:id="rId8"/>
     <sheet name="Colors" sheetId="9" r:id="rId9"/>
+    <sheet name="StaffPosition" sheetId="10" r:id="rId10"/>
+    <sheet name="Staff" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,14 +39,14 @@
       </xcalcf:calcFeatures>
     </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId10" roundtripDataSignature="AMtx7mg2tOSKKfdSG8j/kh3H5OsN5FDQRQ=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId12" roundtripDataSignature="AMtx7mg2tOSKKfdSG8j/kh3H5OsN5FDQRQ=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1051" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1066" uniqueCount="267">
   <si>
     <t>Title</t>
   </si>
@@ -800,6 +802,51 @@
   </si>
   <si>
     <t>HexColor</t>
+  </si>
+  <si>
+    <t>PositonID</t>
+  </si>
+  <si>
+    <t>PositionName</t>
+  </si>
+  <si>
+    <t>Manager</t>
+  </si>
+  <si>
+    <t>Employee</t>
+  </si>
+  <si>
+    <t>StaffID</t>
+  </si>
+  <si>
+    <t>StaffName</t>
+  </si>
+  <si>
+    <t>StaffBirthday</t>
+  </si>
+  <si>
+    <t>StaffAddress</t>
+  </si>
+  <si>
+    <t>StaffPosition</t>
+  </si>
+  <si>
+    <t>Lê Ngô Hậu</t>
+  </si>
+  <si>
+    <t>Phạm Nguyễn Đức Huy</t>
+  </si>
+  <si>
+    <t>Quận 7, TP.HCM</t>
+  </si>
+  <si>
+    <t>Quận 12, TP.HCM</t>
+  </si>
+  <si>
+    <t>1994-07-09</t>
+  </si>
+  <si>
+    <t>2002-09-15</t>
   </si>
 </sst>
 </file>
@@ -886,25 +933,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+  <cellXfs count="12">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1126,7 +1167,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R958"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+    <sheetView zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
       <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
@@ -1145,92 +1186,92 @@
     <col min="16" max="22" width="10.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:18" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="N1" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="O1" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="P1" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="Q1" s="9" t="s">
+      <c r="Q1" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="R1" s="9" t="s">
+      <c r="R1" s="6" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="D2" s="3" t="str">
+      <c r="D2" s="1" t="str">
         <f>CONCATENATE(B2,C2)</f>
         <v>00010001</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="J2" s="3">
+      <c r="J2" s="1">
         <v>30990000</v>
       </c>
       <c r="K2" s="2" t="s">
@@ -1248,46 +1289,46 @@
       <c r="O2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="14">
+      <c r="P2">
         <v>100</v>
       </c>
-      <c r="Q2" s="9" t="s">
+      <c r="Q2" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="R2" s="9" t="s">
+      <c r="R2" s="6" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="D3" s="3" t="str">
+      <c r="D3" s="1" t="str">
         <f t="shared" ref="D3:D38" si="0">CONCATENATE(B3,C3)</f>
         <v>00010002</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="J3" s="3">
+      <c r="J3" s="1">
         <v>30990000</v>
       </c>
       <c r="K3" s="2" t="s">
@@ -1305,46 +1346,46 @@
       <c r="O3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P3" s="14">
+      <c r="P3">
         <v>100</v>
       </c>
-      <c r="Q3" s="9" t="s">
+      <c r="Q3" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="R3" s="9" t="s">
+      <c r="R3" s="6" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="D4" s="3" t="str">
+      <c r="D4" s="1" t="str">
         <f t="shared" si="0"/>
         <v>00010003</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="J4" s="3">
+      <c r="J4" s="1">
         <v>30990000</v>
       </c>
       <c r="K4" s="2" t="s">
@@ -1362,46 +1403,46 @@
       <c r="O4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P4" s="14">
+      <c r="P4">
         <v>100</v>
       </c>
-      <c r="Q4" s="9" t="s">
+      <c r="Q4" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="R4" s="9" t="s">
+      <c r="R4" s="6" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="D5" s="3" t="str">
+      <c r="D5" s="1" t="str">
         <f t="shared" si="0"/>
         <v>00010004</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="J5" s="3">
+      <c r="J5" s="1">
         <v>30990000</v>
       </c>
       <c r="K5" s="2" t="s">
@@ -1419,1894 +1460,1894 @@
       <c r="O5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P5" s="14">
+      <c r="P5">
         <v>100</v>
       </c>
-      <c r="Q5" s="9" t="s">
+      <c r="Q5" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="R5" s="9" t="s">
+      <c r="R5" s="6" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="D6" s="3" t="str">
+      <c r="D6" s="1" t="str">
         <f t="shared" si="0"/>
         <v>00010005</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="I6" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="J6" s="3">
+      <c r="J6" s="1">
         <v>31990000</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="K6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L6" s="4" t="s">
+      <c r="L6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M6" s="4" t="s">
+      <c r="M6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="N6" s="4" t="s">
+      <c r="N6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O6" s="4" t="s">
+      <c r="O6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P6" s="14">
+      <c r="P6">
         <v>100</v>
       </c>
-      <c r="Q6" s="9" t="s">
+      <c r="Q6" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="R6" s="9" t="s">
+      <c r="R6" s="6" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="3">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="D7" s="3" t="str">
+      <c r="D7" s="1" t="str">
         <f t="shared" si="0"/>
         <v>00010006</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="I7" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J7" s="4">
         <v>32990000</v>
       </c>
-      <c r="K7" s="4" t="s">
+      <c r="K7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L7" s="4" t="s">
+      <c r="L7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M7" s="4" t="s">
+      <c r="M7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="N7" s="4" t="s">
+      <c r="N7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O7" s="4" t="s">
+      <c r="O7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P7" s="14">
+      <c r="P7">
         <v>100</v>
       </c>
-      <c r="Q7" s="9" t="s">
+      <c r="Q7" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="R7" s="9" t="s">
+      <c r="R7" s="6" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="3">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="D8" s="3" t="str">
+      <c r="D8" s="1" t="str">
         <f t="shared" si="0"/>
         <v>00010007</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="I8" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="J8" s="3">
+      <c r="J8" s="1">
         <v>31990000</v>
       </c>
-      <c r="K8" s="4" t="s">
+      <c r="K8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L8" s="4" t="s">
+      <c r="L8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M8" s="4" t="s">
+      <c r="M8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="N8" s="4" t="s">
+      <c r="N8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O8" s="4" t="s">
+      <c r="O8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P8" s="14">
+      <c r="P8">
         <v>100</v>
       </c>
-      <c r="Q8" s="9" t="s">
+      <c r="Q8" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="R8" s="9" t="s">
+      <c r="R8" s="6" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="3">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="D9" s="3" t="str">
+      <c r="D9" s="1" t="str">
         <f t="shared" si="0"/>
         <v>00010008</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="H9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="I9" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="J9" s="5">
+      <c r="J9" s="4">
         <v>32990000</v>
       </c>
-      <c r="K9" s="4" t="s">
+      <c r="K9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L9" s="4" t="s">
+      <c r="L9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M9" s="4" t="s">
+      <c r="M9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="N9" s="4" t="s">
+      <c r="N9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O9" s="4" t="s">
+      <c r="O9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P9" s="14">
+      <c r="P9">
         <v>100</v>
       </c>
-      <c r="Q9" s="9" t="s">
+      <c r="Q9" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="R9" s="9" t="s">
+      <c r="R9" s="6" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="3">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="D10" s="3" t="str">
+      <c r="D10" s="1" t="str">
         <f t="shared" si="0"/>
         <v>00010009</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="H10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="I10" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="J10" s="3">
+      <c r="J10" s="1">
         <v>37590000</v>
       </c>
-      <c r="K10" s="4" t="s">
+      <c r="K10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L10" s="4" t="s">
+      <c r="L10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M10" s="4" t="s">
+      <c r="M10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="N10" s="4" t="s">
+      <c r="N10" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O10" s="4" t="s">
+      <c r="O10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P10" s="14">
+      <c r="P10">
         <v>100</v>
       </c>
-      <c r="Q10" s="9" t="s">
+      <c r="Q10" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="R10" s="9" t="s">
+      <c r="R10" s="6" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="3">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="D11" s="3" t="str">
+      <c r="D11" s="1" t="str">
         <f t="shared" si="0"/>
         <v>00010010</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="H11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="I11" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="J11" s="3">
+      <c r="J11" s="1">
         <v>37590000</v>
       </c>
-      <c r="K11" s="4" t="s">
+      <c r="K11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L11" s="4" t="s">
+      <c r="L11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M11" s="4" t="s">
+      <c r="M11" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="N11" s="4" t="s">
+      <c r="N11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O11" s="4" t="s">
+      <c r="O11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P11" s="14">
+      <c r="P11">
         <v>100</v>
       </c>
-      <c r="Q11" s="9" t="s">
+      <c r="Q11" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="R11" s="9" t="s">
+      <c r="R11" s="6" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="3">
+      <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="D12" s="3" t="str">
+      <c r="D12" s="1" t="str">
         <f t="shared" si="0"/>
         <v>00010011</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="G12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="H12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I12" s="3" t="s">
+      <c r="I12" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="J12" s="3">
+      <c r="J12" s="1">
         <v>37590000</v>
       </c>
-      <c r="K12" s="4" t="s">
+      <c r="K12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L12" s="4" t="s">
+      <c r="L12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M12" s="4" t="s">
+      <c r="M12" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="N12" s="4" t="s">
+      <c r="N12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O12" s="4" t="s">
+      <c r="O12" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P12" s="14">
+      <c r="P12">
         <v>100</v>
       </c>
-      <c r="Q12" s="9" t="s">
+      <c r="Q12" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="R12" s="9" t="s">
+      <c r="R12" s="6" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="3">
+      <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="D13" s="3" t="str">
+      <c r="D13" s="1" t="str">
         <f t="shared" si="0"/>
         <v>00010012</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="G13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="H13" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I13" s="3" t="s">
+      <c r="I13" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="J13" s="3">
+      <c r="J13" s="1">
         <v>37590000</v>
       </c>
-      <c r="K13" s="4" t="s">
+      <c r="K13" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L13" s="4" t="s">
+      <c r="L13" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M13" s="4" t="s">
+      <c r="M13" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="N13" s="4" t="s">
+      <c r="N13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O13" s="4" t="s">
+      <c r="O13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P13" s="14">
+      <c r="P13">
         <v>100</v>
       </c>
-      <c r="Q13" s="9" t="s">
+      <c r="Q13" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="R13" s="9" t="s">
+      <c r="R13" s="6" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="14" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="3">
+      <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="D14" s="3" t="str">
+      <c r="D14" s="1" t="str">
         <f t="shared" si="0"/>
         <v>00010013</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="G14" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="6" t="s">
+      <c r="H14" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="I14" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="1">
         <v>42590000</v>
       </c>
-      <c r="K14" s="4" t="s">
+      <c r="K14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L14" s="4" t="s">
+      <c r="L14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M14" s="4" t="s">
+      <c r="M14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="N14" s="4" t="s">
+      <c r="N14" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O14" s="4" t="s">
+      <c r="O14" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P14" s="14">
+      <c r="P14">
         <v>100</v>
       </c>
-      <c r="Q14" s="9" t="s">
+      <c r="Q14" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="R14" s="9" t="s">
+      <c r="R14" s="6" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="15" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="3">
+      <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="D15" s="3" t="str">
+      <c r="D15" s="1" t="str">
         <f t="shared" si="0"/>
         <v>00010014</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="G15" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H15" s="6" t="s">
+      <c r="H15" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="I15" s="3" t="s">
+      <c r="I15" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="J15" s="3">
+      <c r="J15" s="1">
         <v>42590000</v>
       </c>
-      <c r="K15" s="4" t="s">
+      <c r="K15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L15" s="4" t="s">
+      <c r="L15" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M15" s="4" t="s">
+      <c r="M15" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="N15" s="4" t="s">
+      <c r="N15" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O15" s="4" t="s">
+      <c r="O15" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P15" s="14">
+      <c r="P15">
         <v>100</v>
       </c>
-      <c r="Q15" s="9" t="s">
+      <c r="Q15" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="R15" s="9" t="s">
+      <c r="R15" s="6" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="16" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="3">
+      <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="D16" s="3" t="str">
+      <c r="D16" s="1" t="str">
         <f t="shared" si="0"/>
         <v>00010015</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="G16" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H16" s="6" t="s">
+      <c r="H16" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="I16" s="3" t="s">
+      <c r="I16" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="J16" s="3">
+      <c r="J16" s="1">
         <v>42590000</v>
       </c>
-      <c r="K16" s="4" t="s">
+      <c r="K16" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L16" s="4" t="s">
+      <c r="L16" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M16" s="4" t="s">
+      <c r="M16" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="N16" s="4" t="s">
+      <c r="N16" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O16" s="4" t="s">
+      <c r="O16" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P16" s="14">
+      <c r="P16">
         <v>100</v>
       </c>
-      <c r="Q16" s="9" t="s">
+      <c r="Q16" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="R16" s="9" t="s">
+      <c r="R16" s="6" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="17" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="3">
+      <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="D17" s="3" t="str">
+      <c r="D17" s="1" t="str">
         <f t="shared" si="0"/>
         <v>00010016</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F17" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="G17" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H17" s="6" t="s">
+      <c r="H17" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="I17" s="3" t="s">
+      <c r="I17" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="J17" s="5">
+      <c r="J17" s="4">
         <v>41590000</v>
       </c>
-      <c r="K17" s="4" t="s">
+      <c r="K17" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L17" s="4" t="s">
+      <c r="L17" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M17" s="4" t="s">
+      <c r="M17" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="N17" s="4" t="s">
+      <c r="N17" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O17" s="4" t="s">
+      <c r="O17" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P17" s="14">
+      <c r="P17">
         <v>100</v>
       </c>
-      <c r="Q17" s="9" t="s">
+      <c r="Q17" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="R17" s="9" t="s">
+      <c r="R17" s="6" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="18" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="3">
+      <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="D18" s="3" t="str">
+      <c r="D18" s="1" t="str">
         <f t="shared" si="0"/>
         <v>00020017</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="F18" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G18" s="3" t="s">
+      <c r="G18" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H18" s="3" t="s">
+      <c r="H18" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I18" s="3" t="s">
+      <c r="I18" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="J18" s="3">
+      <c r="J18" s="1">
         <v>20590000</v>
       </c>
-      <c r="K18" s="4" t="s">
+      <c r="K18" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="L18" s="4" t="s">
+      <c r="L18" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M18" s="4" t="s">
+      <c r="M18" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="N18" s="4" t="s">
+      <c r="N18" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O18" s="4" t="s">
+      <c r="O18" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="P18" s="14">
+      <c r="P18">
         <v>100</v>
       </c>
-      <c r="Q18" s="9" t="s">
+      <c r="Q18" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="R18" s="9" t="s">
+      <c r="R18" s="6" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="19" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="3">
+      <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="D19" s="3" t="str">
+      <c r="D19" s="1" t="str">
         <f t="shared" si="0"/>
         <v>00020018</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="F19" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G19" s="3" t="s">
+      <c r="G19" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H19" s="3" t="s">
+      <c r="H19" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I19" s="3" t="s">
+      <c r="I19" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="J19" s="3">
+      <c r="J19" s="1">
         <v>20590000</v>
       </c>
-      <c r="K19" s="4" t="s">
+      <c r="K19" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="L19" s="4" t="s">
+      <c r="L19" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M19" s="4" t="s">
+      <c r="M19" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="N19" s="4" t="s">
+      <c r="N19" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O19" s="4" t="s">
+      <c r="O19" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="P19" s="14">
+      <c r="P19">
         <v>100</v>
       </c>
-      <c r="Q19" s="9" t="s">
+      <c r="Q19" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="R19" s="9" t="s">
+      <c r="R19" s="6" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="20" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="3">
+      <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="D20" s="3" t="str">
+      <c r="D20" s="1" t="str">
         <f t="shared" si="0"/>
         <v>00020019</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E20" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="F20" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G20" s="3" t="s">
+      <c r="G20" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H20" s="3" t="s">
+      <c r="H20" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I20" s="3" t="s">
+      <c r="I20" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="J20" s="3">
+      <c r="J20" s="1">
         <v>20590000</v>
       </c>
-      <c r="K20" s="4" t="s">
+      <c r="K20" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="L20" s="4" t="s">
+      <c r="L20" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M20" s="4" t="s">
+      <c r="M20" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="N20" s="4" t="s">
+      <c r="N20" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O20" s="4" t="s">
+      <c r="O20" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="P20" s="14">
+      <c r="P20">
         <v>100</v>
       </c>
-      <c r="Q20" s="9" t="s">
+      <c r="Q20" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="R20" s="9" t="s">
+      <c r="R20" s="6" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="21" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="3">
+      <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="D21" s="3" t="str">
+      <c r="D21" s="1" t="str">
         <f t="shared" si="0"/>
         <v>00020020</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E21" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="F21" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G21" s="3" t="s">
+      <c r="G21" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H21" s="3" t="s">
+      <c r="H21" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I21" s="3" t="s">
+      <c r="I21" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21" s="1">
         <v>20590000</v>
       </c>
-      <c r="K21" s="4" t="s">
+      <c r="K21" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="L21" s="4" t="s">
+      <c r="L21" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M21" s="4" t="s">
+      <c r="M21" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="N21" s="4" t="s">
+      <c r="N21" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O21" s="4" t="s">
+      <c r="O21" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="P21" s="14">
+      <c r="P21">
         <v>100</v>
       </c>
-      <c r="Q21" s="9" t="s">
+      <c r="Q21" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="R21" s="9" t="s">
+      <c r="R21" s="6" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="22" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="3">
+      <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C22" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="D22" s="3" t="str">
+      <c r="D22" s="1" t="str">
         <f t="shared" si="0"/>
         <v>00020021</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="E22" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="F22" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G22" s="3" t="s">
+      <c r="G22" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H22" s="3" t="s">
+      <c r="H22" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I22" s="3" t="s">
+      <c r="I22" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="J22" s="3">
+      <c r="J22" s="1">
         <v>22590000</v>
       </c>
-      <c r="K22" s="4" t="s">
+      <c r="K22" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="L22" s="4" t="s">
+      <c r="L22" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M22" s="4" t="s">
+      <c r="M22" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="N22" s="4" t="s">
+      <c r="N22" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O22" s="4" t="s">
+      <c r="O22" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="P22" s="14">
+      <c r="P22">
         <v>100</v>
       </c>
-      <c r="Q22" s="9" t="s">
+      <c r="Q22" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="R22" s="9" t="s">
+      <c r="R22" s="6" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="23" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="3">
+      <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="C23" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="D23" s="3" t="str">
+      <c r="D23" s="1" t="str">
         <f t="shared" si="0"/>
         <v>00020022</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="E23" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="F23" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G23" s="3" t="s">
+      <c r="G23" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H23" s="3" t="s">
+      <c r="H23" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I23" s="3" t="s">
+      <c r="I23" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="J23" s="3">
+      <c r="J23" s="1">
         <v>22590000</v>
       </c>
-      <c r="K23" s="4" t="s">
+      <c r="K23" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="L23" s="4" t="s">
+      <c r="L23" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M23" s="4" t="s">
+      <c r="M23" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="N23" s="4" t="s">
+      <c r="N23" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O23" s="4" t="s">
+      <c r="O23" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="P23" s="14">
+      <c r="P23">
         <v>100</v>
       </c>
-      <c r="Q23" s="9" t="s">
+      <c r="Q23" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="R23" s="9" t="s">
+      <c r="R23" s="6" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="24" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="3">
+      <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="C24" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="D24" s="3" t="str">
+      <c r="D24" s="1" t="str">
         <f t="shared" si="0"/>
         <v>00020023</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="E24" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="F24" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G24" s="3" t="s">
+      <c r="G24" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H24" s="3" t="s">
+      <c r="H24" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I24" s="3" t="s">
+      <c r="I24" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="J24" s="3">
+      <c r="J24" s="1">
         <v>22590000</v>
       </c>
-      <c r="K24" s="4" t="s">
+      <c r="K24" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="L24" s="4" t="s">
+      <c r="L24" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M24" s="4" t="s">
+      <c r="M24" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="N24" s="4" t="s">
+      <c r="N24" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O24" s="4" t="s">
+      <c r="O24" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="P24" s="14">
+      <c r="P24">
         <v>100</v>
       </c>
-      <c r="Q24" s="9" t="s">
+      <c r="Q24" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="R24" s="9" t="s">
+      <c r="R24" s="6" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="25" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="3">
+      <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="C25" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="D25" s="3" t="str">
+      <c r="D25" s="1" t="str">
         <f t="shared" si="0"/>
         <v>00020024</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="E25" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="F25" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G25" s="3" t="s">
+      <c r="G25" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H25" s="3" t="s">
+      <c r="H25" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I25" s="3" t="s">
+      <c r="I25" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="J25" s="3">
+      <c r="J25" s="1">
         <v>22590000</v>
       </c>
-      <c r="K25" s="4" t="s">
+      <c r="K25" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="L25" s="4" t="s">
+      <c r="L25" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M25" s="4" t="s">
+      <c r="M25" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="N25" s="4" t="s">
+      <c r="N25" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O25" s="4" t="s">
+      <c r="O25" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="P25" s="14">
+      <c r="P25">
         <v>100</v>
       </c>
-      <c r="Q25" s="9" t="s">
+      <c r="Q25" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="R25" s="9" t="s">
+      <c r="R25" s="6" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="26" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="3">
+      <c r="A26" s="1">
         <v>25</v>
       </c>
-      <c r="B26" s="11" t="s">
+      <c r="B26" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="C26" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="D26" s="3" t="str">
+      <c r="D26" s="1" t="str">
         <f t="shared" si="0"/>
         <v>00030025</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="E26" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F26" s="3" t="s">
+      <c r="F26" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G26" s="3" t="s">
+      <c r="G26" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H26" s="3" t="s">
+      <c r="H26" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I26" s="3" t="s">
+      <c r="I26" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="J26" s="3">
+      <c r="J26" s="1">
         <v>8690000</v>
       </c>
-      <c r="K26" s="4" t="s">
+      <c r="K26" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="L26" s="4" t="s">
+      <c r="L26" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M26" s="4" t="s">
+      <c r="M26" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="N26" s="4" t="s">
+      <c r="N26" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="O26" s="4" t="s">
+      <c r="O26" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="P26" s="14">
+      <c r="P26">
         <v>100</v>
       </c>
-      <c r="Q26" s="9" t="s">
+      <c r="Q26" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="R26" s="9" t="s">
+      <c r="R26" s="6" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="27" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="3">
+      <c r="A27" s="1">
         <v>26</v>
       </c>
-      <c r="B27" s="11" t="s">
+      <c r="B27" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="C27" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="D27" s="3" t="str">
+      <c r="D27" s="1" t="str">
         <f t="shared" si="0"/>
         <v>00030026</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="E27" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F27" s="3" t="s">
+      <c r="F27" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G27" s="3" t="s">
+      <c r="G27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H27" s="3" t="s">
+      <c r="H27" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I27" s="3" t="s">
+      <c r="I27" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="J27" s="3">
+      <c r="J27" s="1">
         <v>8690000</v>
       </c>
-      <c r="K27" s="4" t="s">
+      <c r="K27" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="L27" s="4" t="s">
+      <c r="L27" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M27" s="4" t="s">
+      <c r="M27" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="N27" s="4" t="s">
+      <c r="N27" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="O27" s="4" t="s">
+      <c r="O27" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="P27" s="14">
+      <c r="P27">
         <v>100</v>
       </c>
-      <c r="Q27" s="9" t="s">
+      <c r="Q27" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="R27" s="9" t="s">
+      <c r="R27" s="6" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="28" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="3">
+      <c r="A28" s="1">
         <v>27</v>
       </c>
-      <c r="B28" s="11" t="s">
+      <c r="B28" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="C28" s="11" t="s">
+      <c r="C28" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="D28" s="3" t="str">
+      <c r="D28" s="1" t="str">
         <f t="shared" si="0"/>
         <v>00040027</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="E28" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F28" s="3" t="s">
+      <c r="F28" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G28" s="3" t="s">
+      <c r="G28" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H28" s="3" t="s">
+      <c r="H28" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I28" s="3" t="s">
+      <c r="I28" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="J28" s="3">
+      <c r="J28" s="1">
         <v>10090000</v>
       </c>
-      <c r="K28" s="4" t="s">
+      <c r="K28" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="L28" s="4" t="s">
+      <c r="L28" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M28" s="4" t="s">
+      <c r="M28" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="N28" s="4" t="s">
+      <c r="N28" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="O28" s="4" t="s">
+      <c r="O28" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="P28" s="14">
+      <c r="P28">
         <v>100</v>
       </c>
-      <c r="Q28" s="9" t="s">
+      <c r="Q28" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="R28" s="9" t="s">
+      <c r="R28" s="6" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="29" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="3">
+      <c r="A29" s="1">
         <v>28</v>
       </c>
-      <c r="B29" s="11" t="s">
+      <c r="B29" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="C29" s="11" t="s">
+      <c r="C29" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="D29" s="3" t="str">
+      <c r="D29" s="1" t="str">
         <f t="shared" si="0"/>
         <v>00040028</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="E29" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="F29" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G29" s="3" t="s">
+      <c r="G29" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H29" s="3" t="s">
+      <c r="H29" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I29" s="3" t="s">
+      <c r="I29" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="J29" s="3">
+      <c r="J29" s="1">
         <v>10090000</v>
       </c>
-      <c r="K29" s="4" t="s">
+      <c r="K29" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="L29" s="4" t="s">
+      <c r="L29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M29" s="4" t="s">
+      <c r="M29" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="N29" s="4" t="s">
+      <c r="N29" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="O29" s="4" t="s">
+      <c r="O29" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="P29" s="14">
+      <c r="P29">
         <v>100</v>
       </c>
-      <c r="Q29" s="9" t="s">
+      <c r="Q29" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="R29" s="9" t="s">
+      <c r="R29" s="6" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="30" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="3">
+      <c r="A30" s="1">
         <v>29</v>
       </c>
-      <c r="B30" s="11" t="s">
+      <c r="B30" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="C30" s="11" t="s">
+      <c r="C30" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="D30" s="3" t="str">
+      <c r="D30" s="1" t="str">
         <f t="shared" si="0"/>
         <v>00050029</v>
       </c>
-      <c r="E30" s="3" t="s">
+      <c r="E30" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F30" s="3" t="s">
+      <c r="F30" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G30" s="3" t="s">
+      <c r="G30" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H30" s="3" t="s">
+      <c r="H30" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I30" s="3" t="s">
+      <c r="I30" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="J30" s="3">
+      <c r="J30" s="1">
         <v>8890000</v>
       </c>
-      <c r="K30" s="4" t="s">
+      <c r="K30" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="L30" s="4" t="s">
+      <c r="L30" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="M30" s="4" t="s">
+      <c r="M30" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="N30" s="4" t="s">
+      <c r="N30" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="O30" s="4" t="s">
+      <c r="O30" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="P30" s="14">
+      <c r="P30">
         <v>100</v>
       </c>
-      <c r="Q30" s="9" t="s">
+      <c r="Q30" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="R30" s="9" t="s">
+      <c r="R30" s="6" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="31" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="3">
+      <c r="A31" s="1">
         <v>30</v>
       </c>
-      <c r="B31" s="11" t="s">
+      <c r="B31" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="C31" s="11" t="s">
+      <c r="C31" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="D31" s="3" t="str">
+      <c r="D31" s="1" t="str">
         <f t="shared" si="0"/>
         <v>00050030</v>
       </c>
-      <c r="E31" s="3" t="s">
+      <c r="E31" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F31" s="3" t="s">
+      <c r="F31" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G31" s="3" t="s">
+      <c r="G31" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H31" s="3" t="s">
+      <c r="H31" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I31" s="3" t="s">
+      <c r="I31" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="J31" s="3">
+      <c r="J31" s="1">
         <v>8890000</v>
       </c>
-      <c r="K31" s="4" t="s">
+      <c r="K31" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="L31" s="4" t="s">
+      <c r="L31" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="M31" s="4" t="s">
+      <c r="M31" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="N31" s="4" t="s">
+      <c r="N31" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="O31" s="4" t="s">
+      <c r="O31" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="P31" s="14">
+      <c r="P31">
         <v>100</v>
       </c>
-      <c r="Q31" s="9" t="s">
+      <c r="Q31" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="R31" s="9" t="s">
+      <c r="R31" s="6" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="32" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="3">
+      <c r="A32" s="1">
         <v>31</v>
       </c>
-      <c r="B32" s="11" t="s">
+      <c r="B32" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="C32" s="11" t="s">
+      <c r="C32" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="D32" s="3" t="str">
+      <c r="D32" s="1" t="str">
         <f t="shared" si="0"/>
         <v>00050031</v>
       </c>
-      <c r="E32" s="3" t="s">
+      <c r="E32" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F32" s="3" t="s">
+      <c r="F32" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G32" s="3" t="s">
+      <c r="G32" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H32" s="3" t="s">
+      <c r="H32" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I32" s="3" t="s">
+      <c r="I32" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="J32" s="3">
+      <c r="J32" s="1">
         <v>8890000</v>
       </c>
-      <c r="K32" s="4" t="s">
+      <c r="K32" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="L32" s="4" t="s">
+      <c r="L32" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="M32" s="4" t="s">
+      <c r="M32" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="N32" s="4" t="s">
+      <c r="N32" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="O32" s="4" t="s">
+      <c r="O32" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="P32" s="14">
+      <c r="P32">
         <v>100</v>
       </c>
-      <c r="Q32" s="9" t="s">
+      <c r="Q32" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="R32" s="9" t="s">
+      <c r="R32" s="6" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="33" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="3">
+      <c r="A33" s="1">
         <v>32</v>
       </c>
-      <c r="B33" s="11" t="s">
+      <c r="B33" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="C33" s="11" t="s">
+      <c r="C33" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="D33" s="3" t="str">
+      <c r="D33" s="1" t="str">
         <f t="shared" si="0"/>
         <v>00060032</v>
       </c>
-      <c r="E33" s="3" t="s">
+      <c r="E33" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F33" s="3" t="s">
+      <c r="F33" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G33" s="3" t="s">
+      <c r="G33" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="H33" s="3" t="s">
+      <c r="H33" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I33" s="3" t="s">
+      <c r="I33" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="J33" s="3">
+      <c r="J33" s="1">
         <v>36390000</v>
       </c>
-      <c r="K33" s="4" t="s">
+      <c r="K33" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="L33" s="4" t="s">
+      <c r="L33" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M33" s="4" t="s">
+      <c r="M33" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="N33" s="4" t="s">
+      <c r="N33" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O33" s="4" t="s">
+      <c r="O33" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="P33" s="14">
+      <c r="P33">
         <v>100</v>
       </c>
-      <c r="Q33" s="9" t="s">
+      <c r="Q33" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="R33" s="9" t="s">
+      <c r="R33" s="6" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="34" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="3">
+      <c r="A34" s="1">
         <v>33</v>
       </c>
-      <c r="B34" s="11" t="s">
+      <c r="B34" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="C34" s="11" t="s">
+      <c r="C34" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="D34" s="3" t="str">
+      <c r="D34" s="1" t="str">
         <f t="shared" si="0"/>
         <v>00060033</v>
       </c>
-      <c r="E34" s="3" t="s">
+      <c r="E34" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F34" s="3" t="s">
+      <c r="F34" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G34" s="3" t="s">
+      <c r="G34" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="H34" s="3" t="s">
+      <c r="H34" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I34" s="6" t="s">
+      <c r="I34" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="J34" s="3">
+      <c r="J34" s="1">
         <v>36390000</v>
       </c>
-      <c r="K34" s="4" t="s">
+      <c r="K34" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="L34" s="4" t="s">
+      <c r="L34" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M34" s="4" t="s">
+      <c r="M34" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="N34" s="4" t="s">
+      <c r="N34" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O34" s="4" t="s">
+      <c r="O34" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="P34" s="14">
+      <c r="P34">
         <v>100</v>
       </c>
-      <c r="Q34" s="9" t="s">
+      <c r="Q34" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="R34" s="9" t="s">
+      <c r="R34" s="6" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="35" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="3">
+      <c r="A35" s="1">
         <v>34</v>
       </c>
-      <c r="B35" s="11" t="s">
+      <c r="B35" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="C35" s="11" t="s">
+      <c r="C35" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="D35" s="3" t="str">
+      <c r="D35" s="1" t="str">
         <f t="shared" si="0"/>
         <v>00060034</v>
       </c>
-      <c r="E35" s="3" t="s">
+      <c r="E35" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F35" s="3" t="s">
+      <c r="F35" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G35" s="3" t="s">
+      <c r="G35" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="H35" s="3" t="s">
+      <c r="H35" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I35" s="3" t="s">
+      <c r="I35" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="J35" s="3">
+      <c r="J35" s="1">
         <v>36390000</v>
       </c>
-      <c r="K35" s="4" t="s">
+      <c r="K35" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="L35" s="4" t="s">
+      <c r="L35" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M35" s="4" t="s">
+      <c r="M35" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="N35" s="4" t="s">
+      <c r="N35" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O35" s="4" t="s">
+      <c r="O35" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="P35" s="14">
+      <c r="P35">
         <v>100</v>
       </c>
-      <c r="Q35" s="9" t="s">
+      <c r="Q35" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="R35" s="9" t="s">
+      <c r="R35" s="6" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="36" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="3">
+      <c r="A36" s="1">
         <v>35</v>
       </c>
-      <c r="B36" s="11" t="s">
+      <c r="B36" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="C36" s="11" t="s">
+      <c r="C36" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="D36" s="3" t="str">
+      <c r="D36" s="1" t="str">
         <f t="shared" si="0"/>
         <v>00060035</v>
       </c>
-      <c r="E36" s="3" t="s">
+      <c r="E36" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F36" s="3" t="s">
+      <c r="F36" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G36" s="3" t="s">
+      <c r="G36" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="H36" s="3" t="s">
+      <c r="H36" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I36" s="3" t="s">
+      <c r="I36" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="J36" s="3">
+      <c r="J36" s="1">
         <v>39890000</v>
       </c>
-      <c r="K36" s="4" t="s">
+      <c r="K36" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="L36" s="4" t="s">
+      <c r="L36" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M36" s="4" t="s">
+      <c r="M36" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="N36" s="4" t="s">
+      <c r="N36" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O36" s="4" t="s">
+      <c r="O36" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="P36" s="14">
+      <c r="P36">
         <v>100</v>
       </c>
-      <c r="Q36" s="9" t="s">
+      <c r="Q36" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="R36" s="9" t="s">
+      <c r="R36" s="6" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="37" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="3">
+      <c r="A37" s="1">
         <v>36</v>
       </c>
-      <c r="B37" s="11" t="s">
+      <c r="B37" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="C37" s="11" t="s">
+      <c r="C37" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="D37" s="3" t="str">
+      <c r="D37" s="1" t="str">
         <f t="shared" si="0"/>
         <v>00060036</v>
       </c>
-      <c r="E37" s="3" t="s">
+      <c r="E37" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F37" s="3" t="s">
+      <c r="F37" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G37" s="3" t="s">
+      <c r="G37" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="H37" s="3" t="s">
+      <c r="H37" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I37" s="6" t="s">
+      <c r="I37" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="J37" s="3">
+      <c r="J37" s="1">
         <v>39890000</v>
       </c>
-      <c r="K37" s="4" t="s">
+      <c r="K37" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="L37" s="4" t="s">
+      <c r="L37" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M37" s="4" t="s">
+      <c r="M37" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="N37" s="4" t="s">
+      <c r="N37" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O37" s="4" t="s">
+      <c r="O37" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="P37" s="14">
+      <c r="P37">
         <v>100</v>
       </c>
-      <c r="Q37" s="9" t="s">
+      <c r="Q37" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="R37" s="9" t="s">
+      <c r="R37" s="6" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="38" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="3">
+      <c r="A38" s="1">
         <v>37</v>
       </c>
-      <c r="B38" s="11" t="s">
+      <c r="B38" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="C38" s="11" t="s">
+      <c r="C38" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="D38" s="3" t="str">
+      <c r="D38" s="1" t="str">
         <f t="shared" si="0"/>
         <v>00060037</v>
       </c>
-      <c r="E38" s="3" t="s">
+      <c r="E38" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F38" s="3" t="s">
+      <c r="F38" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G38" s="3" t="s">
+      <c r="G38" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="H38" s="3" t="s">
+      <c r="H38" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I38" s="3" t="s">
+      <c r="I38" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="J38" s="3">
+      <c r="J38" s="1">
         <v>39890000</v>
       </c>
-      <c r="K38" s="4" t="s">
+      <c r="K38" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="L38" s="4" t="s">
+      <c r="L38" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M38" s="4" t="s">
+      <c r="M38" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="N38" s="4" t="s">
+      <c r="N38" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O38" s="4" t="s">
+      <c r="O38" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="P38" s="14">
+      <c r="P38">
         <v>100</v>
       </c>
-      <c r="Q38" s="9" t="s">
+      <c r="Q38" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="R38" s="9" t="s">
+      <c r="R38" s="6" t="s">
         <v>170</v>
       </c>
     </row>
@@ -4237,6 +4278,123 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DEA7AFD-A0E9-4A98-B905-2770428CE4BC}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.296875" customWidth="1"/>
+    <col min="2" max="2" width="15.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>255</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF3B5316-AE17-4003-9B8C-48FC1A2D6E9D}">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.8984375" customWidth="1"/>
+    <col min="2" max="2" width="21.59765625" customWidth="1"/>
+    <col min="3" max="3" width="13.3984375" customWidth="1"/>
+    <col min="4" max="4" width="16.3984375" customWidth="1"/>
+    <col min="5" max="5" width="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D1" t="s">
+        <v>259</v>
+      </c>
+      <c r="E1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>262</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>261</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2A751BB-81DA-46D5-A82D-FB9D2F2D1645}">
   <dimension ref="A1:I7"/>
@@ -4257,39 +4415,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="6" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -4307,155 +4465,155 @@
       <c r="G2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="6" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="6" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="I4" s="6" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="H5" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="I5" s="9" t="s">
+      <c r="I5" s="6" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="H6" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="I6" s="9" t="s">
+      <c r="I6" s="6" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="H7" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="I7" s="9" t="s">
+      <c r="I7" s="6" t="s">
         <v>170</v>
       </c>
     </row>
@@ -4474,111 +4632,111 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.69921875" style="12" customWidth="1"/>
+    <col min="1" max="1" width="11.69921875" style="9" customWidth="1"/>
     <col min="2" max="2" width="35.796875" customWidth="1"/>
     <col min="4" max="4" width="40.69921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="7" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="7" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C5">
         <v>3</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="7" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C6">
         <v>4</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="7" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="1" t="s">
         <v>43</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="7" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="8" t="s">
         <v>130</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -4587,12 +4745,12 @@
       <c r="C8">
         <v>1</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="7" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="8" t="s">
         <v>131</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -4601,12 +4759,12 @@
       <c r="C9">
         <v>5</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="7" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="8" t="s">
         <v>132</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -4615,12 +4773,12 @@
       <c r="C10">
         <v>5</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="7" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="8" t="s">
         <v>133</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -4629,26 +4787,26 @@
       <c r="C11">
         <v>6</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="7" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="1" t="s">
         <v>78</v>
       </c>
       <c r="C12">
         <v>7</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="7" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="8" t="s">
         <v>135</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -4657,12 +4815,12 @@
       <c r="C13">
         <v>1</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="7" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="8" t="s">
         <v>136</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -4671,12 +4829,12 @@
       <c r="C14">
         <v>1</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="7" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="8" t="s">
         <v>137</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -4685,7 +4843,7 @@
       <c r="C15">
         <v>1</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="7" t="s">
         <v>220</v>
       </c>
     </row>
@@ -4711,13 +4869,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>111</v>
       </c>
     </row>
@@ -4725,10 +4883,10 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>112</v>
       </c>
     </row>
@@ -4736,10 +4894,10 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>114</v>
       </c>
     </row>
@@ -4747,10 +4905,10 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="7" t="s">
         <v>117</v>
       </c>
     </row>
@@ -4758,10 +4916,10 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="7" t="s">
         <v>117</v>
       </c>
     </row>
@@ -4769,10 +4927,10 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="7" t="s">
         <v>112</v>
       </c>
     </row>
@@ -4780,10 +4938,10 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="7" t="s">
         <v>112</v>
       </c>
     </row>
@@ -4791,10 +4949,10 @@
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="7" t="s">
         <v>117</v>
       </c>
     </row>
@@ -4813,8 +4971,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="3" width="11.3984375" style="12" customWidth="1"/>
-    <col min="4" max="4" width="12.3984375" style="14" customWidth="1"/>
+    <col min="2" max="3" width="11.3984375" style="9" customWidth="1"/>
+    <col min="4" max="4" width="12.3984375" customWidth="1"/>
     <col min="5" max="5" width="20.3984375" customWidth="1"/>
     <col min="6" max="6" width="10.59765625" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
@@ -4831,58 +4989,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="O1" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="P1" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="Q1" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="R1" s="10" t="s">
+      <c r="R1" s="5" t="s">
         <v>165</v>
       </c>
     </row>
@@ -4890,53 +5048,53 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="D2" s="17" t="str">
+      <c r="D2" s="5" t="str">
         <f>CONCATENATE(B2,C2)</f>
         <v>00070001</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="5">
         <v>29590000</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="L2" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="M2" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="N2" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="O2" s="6" t="s">
+      <c r="O2" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="P2" s="6" t="s">
+      <c r="P2" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="Q2" s="6">
+      <c r="Q2" s="5">
         <v>2022</v>
       </c>
       <c r="R2">
@@ -4947,53 +5105,53 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="D3" s="17" t="str">
+      <c r="D3" s="5" t="str">
         <f t="shared" ref="D3:D13" si="0">CONCATENATE(B3,C3)</f>
         <v>00070002</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="5">
         <v>29590000</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="L3" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="M3" s="6" t="s">
+      <c r="M3" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="N3" s="6" t="s">
+      <c r="N3" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="O3" s="6" t="s">
+      <c r="O3" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="P3" s="6" t="s">
+      <c r="P3" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="Q3" s="6">
+      <c r="Q3" s="5">
         <v>2022</v>
       </c>
       <c r="R3">
@@ -5004,53 +5162,53 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="D4" s="17" t="str">
+      <c r="D4" s="5" t="str">
         <f t="shared" si="0"/>
         <v>00070003</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="G4" s="15">
+      <c r="G4" s="10">
         <v>28990000</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="J4" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="K4" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="L4" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="M4" s="6" t="s">
+      <c r="M4" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="N4" s="6" t="s">
+      <c r="N4" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="O4" s="6" t="s">
+      <c r="O4" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="P4" s="6" t="s">
+      <c r="P4" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="Q4" s="6">
+      <c r="Q4" s="5">
         <v>2022</v>
       </c>
       <c r="R4">
@@ -5061,53 +5219,53 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="D5" s="17" t="str">
+      <c r="D5" s="5" t="str">
         <f t="shared" si="0"/>
         <v>00070004</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="5">
         <v>29590000</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="I5" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="J5" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="K5" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="L5" s="6" t="s">
+      <c r="L5" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="M5" s="6" t="s">
+      <c r="M5" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="N5" s="6" t="s">
+      <c r="N5" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="O5" s="6" t="s">
+      <c r="O5" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="P5" s="6" t="s">
+      <c r="P5" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="Q5" s="6">
+      <c r="Q5" s="5">
         <v>2022</v>
       </c>
       <c r="R5">
@@ -5118,53 +5276,53 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="D6" s="17" t="str">
+      <c r="D6" s="5" t="str">
         <f t="shared" si="0"/>
         <v>00070005</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="G6" s="15">
+      <c r="G6" s="10">
         <v>35590000</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="I6" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="J6" s="6" t="s">
+      <c r="J6" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="K6" s="6" t="s">
+      <c r="K6" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="L6" s="6" t="s">
+      <c r="L6" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="M6" s="6" t="s">
+      <c r="M6" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="N6" s="6" t="s">
+      <c r="N6" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="O6" s="6" t="s">
+      <c r="O6" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="P6" s="6" t="s">
+      <c r="P6" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="Q6" s="6">
+      <c r="Q6" s="5">
         <v>2022</v>
       </c>
       <c r="R6">
@@ -5175,53 +5333,53 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="D7" s="17" t="str">
+      <c r="D7" s="5" t="str">
         <f t="shared" si="0"/>
         <v>00070006</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="5">
         <v>34990000</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="I7" s="6" t="s">
+      <c r="I7" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="J7" s="6" t="s">
+      <c r="J7" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="K7" s="6" t="s">
+      <c r="K7" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="L7" s="6" t="s">
+      <c r="L7" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="M7" s="6" t="s">
+      <c r="M7" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="N7" s="6" t="s">
+      <c r="N7" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="O7" s="6" t="s">
+      <c r="O7" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="P7" s="6" t="s">
+      <c r="P7" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="Q7" s="6">
+      <c r="Q7" s="5">
         <v>2022</v>
       </c>
       <c r="R7">
@@ -5232,53 +5390,53 @@
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="D8" s="17" t="str">
+      <c r="D8" s="5" t="str">
         <f t="shared" si="0"/>
         <v>00070007</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="5">
         <v>34990000</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="H8" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="I8" s="6" t="s">
+      <c r="I8" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="J8" s="6" t="s">
+      <c r="J8" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="K8" s="6" t="s">
+      <c r="K8" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="L8" s="6" t="s">
+      <c r="L8" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="M8" s="6" t="s">
+      <c r="M8" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="N8" s="6" t="s">
+      <c r="N8" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="O8" s="6" t="s">
+      <c r="O8" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="P8" s="6" t="s">
+      <c r="P8" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="Q8" s="6">
+      <c r="Q8" s="5">
         <v>2022</v>
       </c>
       <c r="R8">
@@ -5289,53 +5447,53 @@
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="D9" s="17" t="str">
+      <c r="D9" s="5" t="str">
         <f t="shared" si="0"/>
         <v>00070008</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="5">
         <v>34990000</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="H9" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="I9" s="6" t="s">
+      <c r="I9" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="J9" s="6" t="s">
+      <c r="J9" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="K9" s="6" t="s">
+      <c r="K9" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="L9" s="6" t="s">
+      <c r="L9" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="M9" s="6" t="s">
+      <c r="M9" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="N9" s="6" t="s">
+      <c r="N9" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="O9" s="6" t="s">
+      <c r="O9" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="P9" s="6" t="s">
+      <c r="P9" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="Q9" s="6">
+      <c r="Q9" s="5">
         <v>2022</v>
       </c>
       <c r="R9">
@@ -5346,53 +5504,53 @@
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="D10" s="17" t="str">
+      <c r="D10" s="5" t="str">
         <f t="shared" si="0"/>
         <v>00080009</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="5">
         <v>46990000</v>
       </c>
-      <c r="H10" s="16" t="s">
+      <c r="H10" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="I10" s="6" t="s">
+      <c r="I10" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="J10" s="6" t="s">
+      <c r="J10" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="K10" s="6" t="s">
+      <c r="K10" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="L10" s="6" t="s">
+      <c r="L10" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="M10" s="6" t="s">
+      <c r="M10" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="N10" s="6" t="s">
+      <c r="N10" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="O10" s="6" t="s">
+      <c r="O10" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="P10" s="6" t="s">
+      <c r="P10" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="Q10" s="6">
+      <c r="Q10" s="5">
         <v>2022</v>
       </c>
       <c r="R10">
@@ -5403,53 +5561,53 @@
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="D11" s="17" t="str">
+      <c r="D11" s="5" t="str">
         <f t="shared" si="0"/>
         <v>00090010</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G11" s="5">
         <v>18590000</v>
       </c>
-      <c r="H11" s="16" t="s">
+      <c r="H11" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="I11" s="6" t="s">
+      <c r="I11" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J11" s="6" t="s">
+      <c r="J11" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="K11" s="6" t="s">
+      <c r="K11" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="L11" s="6" t="s">
+      <c r="L11" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="M11" s="6" t="s">
+      <c r="M11" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="N11" s="6" t="s">
+      <c r="N11" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="O11" s="6" t="s">
+      <c r="O11" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="P11" s="6" t="s">
+      <c r="P11" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="Q11" s="6">
+      <c r="Q11" s="5">
         <v>2022</v>
       </c>
       <c r="R11">
@@ -5460,53 +5618,53 @@
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="D12" s="17" t="str">
+      <c r="D12" s="5" t="str">
         <f t="shared" si="0"/>
         <v>00100011</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G12" s="5">
         <v>12090000</v>
       </c>
-      <c r="H12" s="16" t="s">
+      <c r="H12" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="I12" s="6" t="s">
+      <c r="I12" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="J12" s="6" t="s">
+      <c r="J12" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="K12" s="6" t="s">
+      <c r="K12" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="L12" s="6" t="s">
+      <c r="L12" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="M12" s="6" t="s">
+      <c r="M12" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="N12" s="6" t="s">
+      <c r="N12" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="O12" s="6" t="s">
+      <c r="O12" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="P12" s="6" t="s">
+      <c r="P12" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="Q12" s="6">
+      <c r="Q12" s="5">
         <v>2021</v>
       </c>
       <c r="R12">
@@ -5517,53 +5675,53 @@
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="D13" s="17" t="str">
+      <c r="D13" s="5" t="str">
         <f t="shared" si="0"/>
         <v>00110012</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F13" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G13" s="5">
         <v>17790000</v>
       </c>
-      <c r="H13" s="16" t="s">
+      <c r="H13" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="I13" s="6" t="s">
+      <c r="I13" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J13" s="6" t="s">
+      <c r="J13" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="K13" s="6" t="s">
+      <c r="K13" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="L13" s="6" t="s">
+      <c r="L13" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="M13" s="6" t="s">
+      <c r="M13" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="N13" s="6" t="s">
+      <c r="N13" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="O13" s="6" t="s">
+      <c r="O13" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="P13" s="6" t="s">
+      <c r="P13" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="Q13" s="6">
+      <c r="Q13" s="5">
         <v>2021</v>
       </c>
       <c r="R13">
@@ -6485,7 +6643,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.3984375" style="12" customWidth="1"/>
+    <col min="1" max="1" width="11.3984375" style="9" customWidth="1"/>
     <col min="2" max="2" width="14.3984375" customWidth="1"/>
     <col min="3" max="3" width="15.3984375" customWidth="1"/>
     <col min="4" max="4" width="16.296875" customWidth="1"/>
@@ -6496,86 +6654,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>183</v>
       </c>
       <c r="G2" t="s">
         <v>185</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="7" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="7" t="s">
         <v>194</v>
       </c>
       <c r="I3" t="s">
@@ -6583,28 +6741,28 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="7" t="s">
         <v>194</v>
       </c>
       <c r="I4" t="s">
@@ -6612,28 +6770,28 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="H5" s="7" t="s">
         <v>194</v>
       </c>
       <c r="I5" t="s">
@@ -6641,28 +6799,28 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="H6" s="7" t="s">
         <v>194</v>
       </c>
       <c r="I6" t="s">
@@ -6684,8 +6842,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="10.59765625" style="12" customWidth="1"/>
-    <col min="3" max="3" width="10.59765625" style="14" customWidth="1"/>
+    <col min="1" max="2" width="10.59765625" style="9" customWidth="1"/>
+    <col min="3" max="3" width="10.59765625" customWidth="1"/>
     <col min="4" max="4" width="26" customWidth="1"/>
     <col min="5" max="5" width="18.296875" customWidth="1"/>
     <col min="6" max="6" width="11.09765625" customWidth="1"/>
@@ -6698,433 +6856,433 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="M1" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="N1" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="O1" s="5" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="C2" s="17" t="str">
+      <c r="C2" s="5" t="str">
         <f>CONCATENATE(A2,B2)</f>
         <v>00120001</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="5">
         <v>6990000</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="L2" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="M2" s="10" t="s">
+      <c r="M2" s="5" t="s">
         <v>197</v>
       </c>
       <c r="N2">
         <v>38</v>
       </c>
-      <c r="O2" s="8" t="s">
+      <c r="O2" s="7" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="C3" s="17" t="str">
+      <c r="C3" s="5" t="str">
         <f t="shared" ref="C3:C9" si="0">CONCATENATE(A3,B3)</f>
         <v>00120002</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="5">
         <v>6990000</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="L3" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="M3" s="10" t="s">
+      <c r="M3" s="5" t="s">
         <v>197</v>
       </c>
       <c r="N3">
         <v>38</v>
       </c>
-      <c r="O3" s="8" t="s">
+      <c r="O3" s="7" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="C4" s="17" t="str">
+      <c r="C4" s="5" t="str">
         <f t="shared" si="0"/>
         <v>00130003</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="5">
         <v>16990000</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="J4" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="K4" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="L4" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="M4" s="10" t="s">
+      <c r="M4" s="5" t="s">
         <v>197</v>
       </c>
       <c r="N4">
         <v>38</v>
       </c>
-      <c r="O4" s="8" t="s">
+      <c r="O4" s="7" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="C5" s="17" t="str">
+      <c r="C5" s="5" t="str">
         <f t="shared" si="0"/>
         <v>00130004</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="5">
         <v>16990000</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="I5" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="J5" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="K5" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="L5" s="6" t="s">
+      <c r="L5" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="M5" s="10" t="s">
+      <c r="M5" s="5" t="s">
         <v>197</v>
       </c>
       <c r="N5">
         <v>38</v>
       </c>
-      <c r="O5" s="8" t="s">
+      <c r="O5" s="7" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="C6" s="17" t="str">
+      <c r="C6" s="5" t="str">
         <f t="shared" si="0"/>
         <v>00140005</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="5">
         <v>9990000</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="I6" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="J6" s="6" t="s">
+      <c r="J6" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="K6" s="6" t="s">
+      <c r="K6" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="L6" s="6" t="s">
+      <c r="L6" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="M6" s="10" t="s">
+      <c r="M6" s="5" t="s">
         <v>197</v>
       </c>
       <c r="N6">
         <v>38</v>
       </c>
-      <c r="O6" s="8" t="s">
+      <c r="O6" s="7" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="C7" s="17" t="str">
+      <c r="C7" s="5" t="str">
         <f t="shared" si="0"/>
         <v>00140006</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="5">
         <v>9990000</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="I7" s="6" t="s">
+      <c r="I7" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="J7" s="6" t="s">
+      <c r="J7" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="K7" s="6" t="s">
+      <c r="K7" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="L7" s="6" t="s">
+      <c r="L7" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="M7" s="10" t="s">
+      <c r="M7" s="5" t="s">
         <v>197</v>
       </c>
       <c r="N7">
         <v>38</v>
       </c>
-      <c r="O7" s="8" t="s">
+      <c r="O7" s="7" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="C8" s="17" t="str">
+      <c r="C8" s="5" t="str">
         <f t="shared" si="0"/>
         <v>00140007</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="5">
         <v>9990000</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="G8" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="H8" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="I8" s="6" t="s">
+      <c r="I8" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="J8" s="6" t="s">
+      <c r="J8" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="K8" s="6" t="s">
+      <c r="K8" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="L8" s="6" t="s">
+      <c r="L8" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="M8" s="10" t="s">
+      <c r="M8" s="5" t="s">
         <v>197</v>
       </c>
       <c r="N8">
         <v>38</v>
       </c>
-      <c r="O8" s="8" t="s">
+      <c r="O8" s="7" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="C9" s="17" t="str">
+      <c r="C9" s="5" t="str">
         <f t="shared" si="0"/>
         <v>00140008</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="5">
         <v>9990000</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="G9" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="H9" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="I9" s="6" t="s">
+      <c r="I9" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="J9" s="6" t="s">
+      <c r="J9" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="K9" s="6" t="s">
+      <c r="K9" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="L9" s="6" t="s">
+      <c r="L9" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="M9" s="10" t="s">
+      <c r="M9" s="5" t="s">
         <v>197</v>
       </c>
       <c r="N9">
         <v>38</v>
       </c>
-      <c r="O9" s="8" t="s">
+      <c r="O9" s="7" t="s">
         <v>200</v>
       </c>
     </row>
@@ -8130,7 +8288,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.59765625" style="12" customWidth="1"/>
+    <col min="1" max="1" width="10.59765625" style="9" customWidth="1"/>
     <col min="2" max="2" width="14.296875" customWidth="1"/>
     <col min="3" max="3" width="16.296875" customWidth="1"/>
     <col min="4" max="4" width="18.796875" customWidth="1"/>
@@ -8138,70 +8296,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="5" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="5" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="5" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="5" t="s">
         <v>197</v>
       </c>
     </row>
@@ -8224,15 +8382,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>223</v>
       </c>
       <c r="B2" t="s">
@@ -8240,23 +8398,23 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="7" t="s">
         <v>231</v>
       </c>
       <c r="B5" t="s">
@@ -8264,23 +8422,23 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="7" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="7" t="s">
         <v>229</v>
       </c>
       <c r="B8" t="s">
@@ -8288,7 +8446,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="7" t="s">
         <v>232</v>
       </c>
       <c r="B9" t="s">
@@ -8296,7 +8454,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="7" t="s">
         <v>233</v>
       </c>
       <c r="B10" t="s">
@@ -8304,7 +8462,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="7" t="s">
         <v>226</v>
       </c>
       <c r="B11" t="s">
@@ -8312,7 +8470,7 @@
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="7" t="s">
         <v>234</v>
       </c>
       <c r="B12" t="s">
@@ -8320,7 +8478,7 @@
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="7" t="s">
         <v>235</v>
       </c>
       <c r="B13" t="s">
@@ -8328,7 +8486,7 @@
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="7" t="s">
         <v>236</v>
       </c>
       <c r="B14" t="s">
@@ -8336,7 +8494,7 @@
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="7" t="s">
         <v>225</v>
       </c>
       <c r="B15" t="s">

--- a/DataLuvaShop/phone_laptop_watch_data_tth.xlsx
+++ b/DataLuvaShop/phone_laptop_watch_data_tth.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/58dcdd4e14744d6b/LuvaTech/DataLuvaShop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="190" documentId="13_ncr:1_{E2E5F23B-101F-4AFB-AFA1-F71EB972B43A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F42753BA-2FA0-4839-A973-62FB13C2133F}"/>
+  <xr:revisionPtr revIDLastSave="306" documentId="13_ncr:1_{E2E5F23B-101F-4AFB-AFA1-F71EB972B43A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7354CE13-CE14-4520-8FD7-FDB57FB7E835}"/>
   <bookViews>
-    <workbookView xWindow="-16245" yWindow="2835" windowWidth="16230" windowHeight="9225" firstSheet="5" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21720" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Phone" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1066" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1126" uniqueCount="306">
   <si>
     <t>Title</t>
   </si>
@@ -847,6 +847,123 @@
   </si>
   <si>
     <t>2002-09-15</t>
+  </si>
+  <si>
+    <t>src/main/java/Assets/Image/laptop/Apple_Macbook_AirM2/macbook_air_m2-grey-2.jpg</t>
+  </si>
+  <si>
+    <t>src/main/java/Assets/Image/laptop/Apple_Macbook_AirM2/macbook_air_m2-gold-2.jpg</t>
+  </si>
+  <si>
+    <t>src/main/java/Assets/Image/laptop/Apple_Macbook_AirM2/macbook_air_m2-white-2.jpg</t>
+  </si>
+  <si>
+    <t>src/main/java/Assets/Image/laptop/Laptop_Dell_XPS13_9320/dell-xps-3.jpg</t>
+  </si>
+  <si>
+    <t>src/main/java/Assets/Image/laptop/Laptop_Dell_Vostro_3400/dell-vostro-2.jpg</t>
+  </si>
+  <si>
+    <t>src/main/java/Assets/Image/laptop/Laptop HP_Pavilion14_dv0516TU/hp-14s-fq1080au-1.jpg</t>
+  </si>
+  <si>
+    <t>src/main/java/Assets/Image/laptop/Laptop_Asus_VivoBook_X515EA/laptop-asus-vivobook-2.jpg</t>
+  </si>
+  <si>
+    <t>src/main/java/Assets/Image/watch/Apple_Watch_SE/se-40mm-black-2.jpg</t>
+  </si>
+  <si>
+    <t>src/main/java/Assets/Image/watch/Apple_Watch_SE/se-40mm-white-1.jpg</t>
+  </si>
+  <si>
+    <t>src/main/java/Assets/Image/watch/Apple_Watch_S5_LTE/apple-watch-s5-lte-silver-2.jpg</t>
+  </si>
+  <si>
+    <t>src/main/java/Assets/Image/watch/Apple_Watch_S5_LTE/apple-watch-s5-lte-gold-1.jpg</t>
+  </si>
+  <si>
+    <t>src/main/java/Assets/Image/watch/Apple_Watch_Series7_GPS_41mm/apple-watch-s7-41mm-black-1.jpg</t>
+  </si>
+  <si>
+    <t>src/main/java/Assets/Image/watch/Apple_Watch_Series7_GPS_41mm/apple-watch-s7-41mm-blue-1.jpg</t>
+  </si>
+  <si>
+    <t>src/main/java/Assets/Image/watch/Apple_Watch_Series7_GPS_41mm/apple-watch-s7-41mm-white-1.jpg</t>
+  </si>
+  <si>
+    <t>src/main/java/Assets/Image/watch/Apple_Watch_Series7_GPS_41mm/apple-watch-s7-41mm-red-2.jpg</t>
+  </si>
+  <si>
+    <t>src/main/java/Assets/Image/phone/ip14pro/iphone-14-pro-black-1.jpg</t>
+  </si>
+  <si>
+    <t>src/main/java/Assets/Image/phone/ip14pro/iphone-14-pro-black-2.jpg</t>
+  </si>
+  <si>
+    <t>src/main/java/Assets/Image/phone/ip14pro/iphone-14-pro-purple-2.jpg</t>
+  </si>
+  <si>
+    <t>src/main/java/Assets/Image/phone/ip14pro/iphone-14-pro-silver-2.jpg</t>
+  </si>
+  <si>
+    <t>src/main/java/Assets/Image/phone/ip14pro/iphone-14-pro-purple-1.jpg</t>
+  </si>
+  <si>
+    <t>src/main/java/Assets/Image/phone/ip14pro/iphone-14-pro-silver-1.jpg</t>
+  </si>
+  <si>
+    <t>src/main/java/Assets/Image/phone/ip14pro/iphone-14-pro-gold-2.jpg</t>
+  </si>
+  <si>
+    <t>src/main/java/Assets/Image/phone/samsungzflip4/samsung_galaxy_z_flip-gold-1.jpg</t>
+  </si>
+  <si>
+    <t>src/main/java/Assets/Image/phone/samsungzflip4/samsung_galaxy_z_flip-purple-1.jpg</t>
+  </si>
+  <si>
+    <t>src/main/java/Assets/Image/phone/samsungzflip4/samsung_galaxy_z_flip-blue-2.jpg</t>
+  </si>
+  <si>
+    <t>src/main/java/Assets/Image/phone/samsungzflip4/samsung_galaxy_z_flip-black-2.jpg</t>
+  </si>
+  <si>
+    <t>src/main/java/Assets/Image/phone/samsungzflip4/samsung_galaxy_z_flip-black-1.jpg</t>
+  </si>
+  <si>
+    <t>src/main/java/Assets/Image/phone/OPPO_Reno8/reno8_4g-black-1.jpg</t>
+  </si>
+  <si>
+    <t>src/main/java/Assets/Image/phone/OPPO_Reno8/reno8_4g-gold-2.jpg</t>
+  </si>
+  <si>
+    <t>src/main/java/Assets/Image/phone/oppo_zero8Z_5g/oppo_starlight_black-2.jpg</t>
+  </si>
+  <si>
+    <t>src/main/java/Assets/Image/phone/oppo_zero8Z_5g/oppo_starlight_gold-1.jpg</t>
+  </si>
+  <si>
+    <t>src/main/java/Assets/Image/phone/Xiaomi_Redmi_Note11ProPlus_5G/11-pro-plus-green-1.jpg</t>
+  </si>
+  <si>
+    <t>src/main/java/Assets/Image/phone/Xiaomi_Redmi_Note11ProPlus_5G/11-pro-plus-black-1.jpg</t>
+  </si>
+  <si>
+    <t>src/main/java/Assets/Image/phone/Samsung_Galaxy_ZFold4/samsung_galaxy_z_fold_4-green-3.jpg</t>
+  </si>
+  <si>
+    <t>src/main/java/Assets/Image/phone/Samsung_Galaxy_ZFold4/samsung_galaxy_z_fold_4-green-2.jpg</t>
+  </si>
+  <si>
+    <t>src/main/java/Assets/Image/phone/Samsung_Galaxy_ZFold4/samsung_galaxy_z_fold_4-white-1.jpg</t>
+  </si>
+  <si>
+    <t>src/main/java/Assets/Image/phone/Samsung_Galaxy_ZFold4/samsung_galaxy_z_fold_4-black-2.jpg</t>
+  </si>
+  <si>
+    <t>src/main/java/Assets/Image/phone/Samsung_Galaxy_ZFold4/samsung_galaxy_z_fold_4-white-3.jpg</t>
+  </si>
+  <si>
+    <t>src/main/java/Assets/Image/phone/Samsung_Galaxy_ZFold4/samsung_galaxy_z_fold_4-black-3.jpg</t>
   </si>
 </sst>
 </file>
@@ -1165,10 +1282,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R958"/>
+  <dimension ref="A1:S958"/>
   <sheetViews>
-    <sheetView zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1176,17 +1293,17 @@
     <col min="1" max="3" width="11.69921875" customWidth="1"/>
     <col min="4" max="5" width="20.796875" customWidth="1"/>
     <col min="6" max="6" width="21.296875" customWidth="1"/>
-    <col min="7" max="8" width="10.59765625" customWidth="1"/>
-    <col min="9" max="9" width="16.796875" customWidth="1"/>
-    <col min="10" max="10" width="16.69921875" customWidth="1"/>
-    <col min="11" max="12" width="10.59765625" customWidth="1"/>
-    <col min="13" max="13" width="28.69921875" customWidth="1"/>
-    <col min="14" max="14" width="10.59765625" customWidth="1"/>
-    <col min="15" max="15" width="16" customWidth="1"/>
-    <col min="16" max="22" width="10.59765625" customWidth="1"/>
+    <col min="7" max="9" width="10.59765625" customWidth="1"/>
+    <col min="10" max="10" width="16.796875" customWidth="1"/>
+    <col min="11" max="11" width="16.69921875" customWidth="1"/>
+    <col min="12" max="13" width="10.59765625" customWidth="1"/>
+    <col min="14" max="14" width="28.69921875" customWidth="1"/>
+    <col min="15" max="15" width="10.59765625" customWidth="1"/>
+    <col min="16" max="16" width="16" customWidth="1"/>
+    <col min="17" max="23" width="10.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>103</v>
       </c>
@@ -1212,37 +1329,40 @@
         <v>3</v>
       </c>
       <c r="I1" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="J1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="O1" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="P1" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="Q1" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="R1" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="S1" s="6" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1268,38 +1388,41 @@
       <c r="H2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="J2" s="1">
+      <c r="K2" s="1">
         <v>30990000</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>100</v>
       </c>
-      <c r="Q2" s="6" t="s">
+      <c r="R2" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="R2" s="6" t="s">
+      <c r="S2" s="6" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1325,38 +1448,41 @@
       <c r="H3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="J3" s="1">
+      <c r="K3" s="1">
         <v>30990000</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="P3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>100</v>
       </c>
-      <c r="Q3" s="6" t="s">
+      <c r="R3" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="R3" s="6" t="s">
+      <c r="S3" s="6" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1382,38 +1508,41 @@
       <c r="H4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I4" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="J4" s="1">
+      <c r="K4" s="1">
         <v>30990000</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="L4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="M4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="N4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="2" t="s">
+      <c r="O4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O4" s="2" t="s">
+      <c r="P4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>100</v>
       </c>
-      <c r="Q4" s="6" t="s">
+      <c r="R4" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="R4" s="6" t="s">
+      <c r="S4" s="6" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1439,38 +1568,41 @@
       <c r="H5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="I5" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="J5" s="1">
+      <c r="K5" s="1">
         <v>30990000</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="L5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="M5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M5" s="2" t="s">
+      <c r="N5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N5" s="2" t="s">
+      <c r="O5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O5" s="2" t="s">
+      <c r="P5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>100</v>
       </c>
-      <c r="Q5" s="6" t="s">
+      <c r="R5" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="R5" s="6" t="s">
+      <c r="S5" s="6" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1496,38 +1628,41 @@
       <c r="H6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="I6" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="J6" s="1">
+      <c r="K6" s="1">
         <v>31990000</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="L6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="M6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M6" s="3" t="s">
+      <c r="N6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="N6" s="3" t="s">
+      <c r="O6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O6" s="3" t="s">
+      <c r="P6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>100</v>
       </c>
-      <c r="Q6" s="6" t="s">
+      <c r="R6" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="R6" s="6" t="s">
+      <c r="S6" s="6" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1553,38 +1688,41 @@
       <c r="H7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="I7" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="J7" s="4">
+      <c r="K7" s="4">
         <v>32990000</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="L7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L7" s="3" t="s">
+      <c r="M7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M7" s="3" t="s">
+      <c r="N7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="N7" s="3" t="s">
+      <c r="O7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O7" s="3" t="s">
+      <c r="P7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>100</v>
       </c>
-      <c r="Q7" s="6" t="s">
+      <c r="R7" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="R7" s="6" t="s">
+      <c r="S7" s="6" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1610,38 +1748,41 @@
       <c r="H8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="I8" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="J8" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="J8" s="1">
+      <c r="K8" s="1">
         <v>31990000</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="L8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L8" s="3" t="s">
+      <c r="M8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M8" s="3" t="s">
+      <c r="N8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="N8" s="3" t="s">
+      <c r="O8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O8" s="3" t="s">
+      <c r="P8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>100</v>
       </c>
-      <c r="Q8" s="6" t="s">
+      <c r="R8" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="R8" s="6" t="s">
+      <c r="S8" s="6" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1667,38 +1808,41 @@
       <c r="H9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="I9" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="J9" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="J9" s="4">
+      <c r="K9" s="4">
         <v>32990000</v>
       </c>
-      <c r="K9" s="3" t="s">
+      <c r="L9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L9" s="3" t="s">
+      <c r="M9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M9" s="3" t="s">
+      <c r="N9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="N9" s="3" t="s">
+      <c r="O9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O9" s="3" t="s">
+      <c r="P9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>100</v>
       </c>
-      <c r="Q9" s="6" t="s">
+      <c r="R9" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="R9" s="6" t="s">
+      <c r="S9" s="6" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1724,38 +1868,41 @@
       <c r="H10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="I10" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="J10" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="J10" s="1">
+      <c r="K10" s="1">
         <v>37590000</v>
       </c>
-      <c r="K10" s="3" t="s">
+      <c r="L10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L10" s="3" t="s">
+      <c r="M10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M10" s="3" t="s">
+      <c r="N10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="N10" s="3" t="s">
+      <c r="O10" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O10" s="3" t="s">
+      <c r="P10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>100</v>
       </c>
-      <c r="Q10" s="6" t="s">
+      <c r="R10" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="R10" s="6" t="s">
+      <c r="S10" s="6" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1781,38 +1928,41 @@
       <c r="H11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="I11" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="J11" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="J11" s="1">
+      <c r="K11" s="1">
         <v>37590000</v>
       </c>
-      <c r="K11" s="3" t="s">
+      <c r="L11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L11" s="3" t="s">
+      <c r="M11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M11" s="3" t="s">
+      <c r="N11" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="N11" s="3" t="s">
+      <c r="O11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O11" s="3" t="s">
+      <c r="P11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>100</v>
       </c>
-      <c r="Q11" s="6" t="s">
+      <c r="R11" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="R11" s="6" t="s">
+      <c r="S11" s="6" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1838,38 +1988,41 @@
       <c r="H12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="I12" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="J12" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="J12" s="1">
+      <c r="K12" s="1">
         <v>37590000</v>
       </c>
-      <c r="K12" s="3" t="s">
+      <c r="L12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L12" s="3" t="s">
+      <c r="M12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M12" s="3" t="s">
+      <c r="N12" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="N12" s="3" t="s">
+      <c r="O12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O12" s="3" t="s">
+      <c r="P12" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>100</v>
       </c>
-      <c r="Q12" s="6" t="s">
+      <c r="R12" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="R12" s="6" t="s">
+      <c r="S12" s="6" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1895,38 +2048,41 @@
       <c r="H13" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="I13" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="J13" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="J13" s="1">
+      <c r="K13" s="1">
         <v>37590000</v>
       </c>
-      <c r="K13" s="3" t="s">
+      <c r="L13" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L13" s="3" t="s">
+      <c r="M13" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M13" s="3" t="s">
+      <c r="N13" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="N13" s="3" t="s">
+      <c r="O13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O13" s="3" t="s">
+      <c r="P13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>100</v>
       </c>
-      <c r="Q13" s="6" t="s">
+      <c r="R13" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="R13" s="6" t="s">
+      <c r="S13" s="6" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1952,38 +2108,41 @@
       <c r="H14" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="I14" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="J14" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="J14" s="1">
+      <c r="K14" s="1">
         <v>42590000</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="L14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L14" s="3" t="s">
+      <c r="M14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M14" s="3" t="s">
+      <c r="N14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="N14" s="3" t="s">
+      <c r="O14" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O14" s="3" t="s">
+      <c r="P14" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>100</v>
       </c>
-      <c r="Q14" s="6" t="s">
+      <c r="R14" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="R14" s="6" t="s">
+      <c r="S14" s="6" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -2009,38 +2168,41 @@
       <c r="H15" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="I15" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="J15" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="J15" s="1">
+      <c r="K15" s="1">
         <v>42590000</v>
       </c>
-      <c r="K15" s="3" t="s">
+      <c r="L15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L15" s="3" t="s">
+      <c r="M15" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M15" s="3" t="s">
+      <c r="N15" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="N15" s="3" t="s">
+      <c r="O15" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O15" s="3" t="s">
+      <c r="P15" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>100</v>
       </c>
-      <c r="Q15" s="6" t="s">
+      <c r="R15" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="R15" s="6" t="s">
+      <c r="S15" s="6" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -2066,38 +2228,41 @@
       <c r="H16" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="I16" s="1" t="s">
+      <c r="I16" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="J16" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="J16" s="1">
+      <c r="K16" s="1">
         <v>42590000</v>
       </c>
-      <c r="K16" s="3" t="s">
+      <c r="L16" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L16" s="3" t="s">
+      <c r="M16" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M16" s="3" t="s">
+      <c r="N16" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="N16" s="3" t="s">
+      <c r="O16" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O16" s="3" t="s">
+      <c r="P16" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>100</v>
       </c>
-      <c r="Q16" s="6" t="s">
+      <c r="R16" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="R16" s="6" t="s">
+      <c r="S16" s="6" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -2123,38 +2288,41 @@
       <c r="H17" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="I17" s="1" t="s">
+      <c r="I17" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="J17" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="J17" s="4">
+      <c r="K17" s="4">
         <v>41590000</v>
       </c>
-      <c r="K17" s="3" t="s">
+      <c r="L17" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L17" s="3" t="s">
+      <c r="M17" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M17" s="3" t="s">
+      <c r="N17" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="N17" s="3" t="s">
+      <c r="O17" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O17" s="3" t="s">
+      <c r="P17" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>100</v>
       </c>
-      <c r="Q17" s="6" t="s">
+      <c r="R17" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="R17" s="6" t="s">
+      <c r="S17" s="6" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="18" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -2180,38 +2348,41 @@
       <c r="H18" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I18" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="J18" s="1">
+      <c r="I18" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="K18" s="1">
         <v>20590000</v>
       </c>
-      <c r="K18" s="3" t="s">
+      <c r="L18" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="L18" s="3" t="s">
+      <c r="M18" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M18" s="3" t="s">
+      <c r="N18" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="N18" s="3" t="s">
+      <c r="O18" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O18" s="3" t="s">
+      <c r="P18" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>100</v>
       </c>
-      <c r="Q18" s="6" t="s">
+      <c r="R18" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="R18" s="6" t="s">
+      <c r="S18" s="6" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="19" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -2237,38 +2408,41 @@
       <c r="H19" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I19" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="J19" s="1">
+      <c r="I19" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="K19" s="1">
         <v>20590000</v>
       </c>
-      <c r="K19" s="3" t="s">
+      <c r="L19" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="L19" s="3" t="s">
+      <c r="M19" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M19" s="3" t="s">
+      <c r="N19" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="N19" s="3" t="s">
+      <c r="O19" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O19" s="3" t="s">
+      <c r="P19" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>100</v>
       </c>
-      <c r="Q19" s="6" t="s">
+      <c r="R19" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="R19" s="6" t="s">
+      <c r="S19" s="6" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="20" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -2294,38 +2468,41 @@
       <c r="H20" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I20" s="1" t="s">
+      <c r="I20" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="J20" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="J20" s="1">
+      <c r="K20" s="1">
         <v>20590000</v>
       </c>
-      <c r="K20" s="3" t="s">
+      <c r="L20" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="L20" s="3" t="s">
+      <c r="M20" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M20" s="3" t="s">
+      <c r="N20" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="N20" s="3" t="s">
+      <c r="O20" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O20" s="3" t="s">
+      <c r="P20" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>100</v>
       </c>
-      <c r="Q20" s="6" t="s">
+      <c r="R20" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="R20" s="6" t="s">
+      <c r="S20" s="6" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="21" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -2351,38 +2528,41 @@
       <c r="H21" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I21" s="1" t="s">
+      <c r="I21" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="J21" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="J21" s="1">
+      <c r="K21" s="1">
         <v>20590000</v>
       </c>
-      <c r="K21" s="3" t="s">
+      <c r="L21" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="L21" s="3" t="s">
+      <c r="M21" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M21" s="3" t="s">
+      <c r="N21" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="N21" s="3" t="s">
+      <c r="O21" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O21" s="3" t="s">
+      <c r="P21" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>100</v>
       </c>
-      <c r="Q21" s="6" t="s">
+      <c r="R21" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="R21" s="6" t="s">
+      <c r="S21" s="6" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="22" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -2408,38 +2588,41 @@
       <c r="H22" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I22" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="J22" s="1">
+      <c r="I22" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="K22" s="1">
         <v>22590000</v>
       </c>
-      <c r="K22" s="3" t="s">
+      <c r="L22" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="L22" s="3" t="s">
+      <c r="M22" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M22" s="3" t="s">
+      <c r="N22" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="N22" s="3" t="s">
+      <c r="O22" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O22" s="3" t="s">
+      <c r="P22" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="P22">
+      <c r="Q22">
         <v>100</v>
       </c>
-      <c r="Q22" s="6" t="s">
+      <c r="R22" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="R22" s="6" t="s">
+      <c r="S22" s="6" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="23" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -2465,38 +2648,41 @@
       <c r="H23" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I23" s="1" t="s">
+      <c r="I23" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="J23" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="J23" s="1">
+      <c r="K23" s="1">
         <v>22590000</v>
       </c>
-      <c r="K23" s="3" t="s">
+      <c r="L23" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="L23" s="3" t="s">
+      <c r="M23" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M23" s="3" t="s">
+      <c r="N23" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="N23" s="3" t="s">
+      <c r="O23" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O23" s="3" t="s">
+      <c r="P23" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <v>100</v>
       </c>
-      <c r="Q23" s="6" t="s">
+      <c r="R23" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="R23" s="6" t="s">
+      <c r="S23" s="6" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="24" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -2522,38 +2708,41 @@
       <c r="H24" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I24" s="1" t="s">
+      <c r="I24" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="J24" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="J24" s="1">
+      <c r="K24" s="1">
         <v>22590000</v>
       </c>
-      <c r="K24" s="3" t="s">
+      <c r="L24" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="L24" s="3" t="s">
+      <c r="M24" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M24" s="3" t="s">
+      <c r="N24" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="N24" s="3" t="s">
+      <c r="O24" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O24" s="3" t="s">
+      <c r="P24" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="P24">
+      <c r="Q24">
         <v>100</v>
       </c>
-      <c r="Q24" s="6" t="s">
+      <c r="R24" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="R24" s="6" t="s">
+      <c r="S24" s="6" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="25" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -2579,38 +2768,41 @@
       <c r="H25" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I25" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="J25" s="1">
+      <c r="I25" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="K25" s="1">
         <v>22590000</v>
       </c>
-      <c r="K25" s="3" t="s">
+      <c r="L25" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="L25" s="3" t="s">
+      <c r="M25" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M25" s="3" t="s">
+      <c r="N25" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="N25" s="3" t="s">
+      <c r="O25" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O25" s="3" t="s">
+      <c r="P25" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="P25">
+      <c r="Q25">
         <v>100</v>
       </c>
-      <c r="Q25" s="6" t="s">
+      <c r="R25" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="R25" s="6" t="s">
+      <c r="S25" s="6" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="26" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -2636,38 +2828,41 @@
       <c r="H26" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I26" s="1" t="s">
+      <c r="I26" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="J26" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="J26" s="1">
+      <c r="K26" s="1">
         <v>8690000</v>
       </c>
-      <c r="K26" s="3" t="s">
+      <c r="L26" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="L26" s="3" t="s">
+      <c r="M26" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M26" s="3" t="s">
+      <c r="N26" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="N26" s="3" t="s">
+      <c r="O26" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="O26" s="3" t="s">
+      <c r="P26" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <v>100</v>
       </c>
-      <c r="Q26" s="6" t="s">
+      <c r="R26" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="R26" s="6" t="s">
+      <c r="S26" s="6" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="27" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -2693,38 +2888,41 @@
       <c r="H27" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I27" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="J27" s="1">
+      <c r="I27" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="K27" s="1">
         <v>8690000</v>
       </c>
-      <c r="K27" s="3" t="s">
+      <c r="L27" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="L27" s="3" t="s">
+      <c r="M27" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M27" s="3" t="s">
+      <c r="N27" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="N27" s="3" t="s">
+      <c r="O27" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="O27" s="3" t="s">
+      <c r="P27" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="P27">
+      <c r="Q27">
         <v>100</v>
       </c>
-      <c r="Q27" s="6" t="s">
+      <c r="R27" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="R27" s="6" t="s">
+      <c r="S27" s="6" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="28" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -2750,38 +2948,41 @@
       <c r="H28" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I28" s="1" t="s">
+      <c r="I28" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="J28" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="J28" s="1">
+      <c r="K28" s="1">
         <v>10090000</v>
       </c>
-      <c r="K28" s="3" t="s">
+      <c r="L28" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="L28" s="3" t="s">
+      <c r="M28" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M28" s="3" t="s">
+      <c r="N28" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="N28" s="3" t="s">
+      <c r="O28" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="O28" s="3" t="s">
+      <c r="P28" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="P28">
+      <c r="Q28">
         <v>100</v>
       </c>
-      <c r="Q28" s="6" t="s">
+      <c r="R28" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="R28" s="6" t="s">
+      <c r="S28" s="6" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="29" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -2807,38 +3008,41 @@
       <c r="H29" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I29" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="J29" s="1">
+      <c r="I29" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="K29" s="1">
         <v>10090000</v>
       </c>
-      <c r="K29" s="3" t="s">
+      <c r="L29" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="L29" s="3" t="s">
+      <c r="M29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M29" s="3" t="s">
+      <c r="N29" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="N29" s="3" t="s">
+      <c r="O29" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="O29" s="3" t="s">
+      <c r="P29" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="P29">
+      <c r="Q29">
         <v>100</v>
       </c>
-      <c r="Q29" s="6" t="s">
+      <c r="R29" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="R29" s="6" t="s">
+      <c r="S29" s="6" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="30" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -2864,38 +3068,41 @@
       <c r="H30" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I30" s="1" t="s">
+      <c r="I30" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="J30" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="J30" s="1">
+      <c r="K30" s="1">
         <v>8890000</v>
       </c>
-      <c r="K30" s="3" t="s">
+      <c r="L30" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="L30" s="3" t="s">
+      <c r="M30" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="M30" s="3" t="s">
+      <c r="N30" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="N30" s="3" t="s">
+      <c r="O30" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="O30" s="3" t="s">
+      <c r="P30" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="P30">
+      <c r="Q30">
         <v>100</v>
       </c>
-      <c r="Q30" s="6" t="s">
+      <c r="R30" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="R30" s="6" t="s">
+      <c r="S30" s="6" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="31" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -2921,38 +3128,41 @@
       <c r="H31" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I31" s="1" t="s">
+      <c r="I31" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="J31" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="J31" s="1">
+      <c r="K31" s="1">
         <v>8890000</v>
       </c>
-      <c r="K31" s="3" t="s">
+      <c r="L31" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="L31" s="3" t="s">
+      <c r="M31" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="M31" s="3" t="s">
+      <c r="N31" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="N31" s="3" t="s">
+      <c r="O31" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="O31" s="3" t="s">
+      <c r="P31" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="P31">
+      <c r="Q31">
         <v>100</v>
       </c>
-      <c r="Q31" s="6" t="s">
+      <c r="R31" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="R31" s="6" t="s">
+      <c r="S31" s="6" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="32" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -2978,38 +3188,41 @@
       <c r="H32" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I32" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="J32" s="1">
+      <c r="I32" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="K32" s="1">
         <v>8890000</v>
       </c>
-      <c r="K32" s="3" t="s">
+      <c r="L32" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="L32" s="3" t="s">
+      <c r="M32" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="M32" s="3" t="s">
+      <c r="N32" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="N32" s="3" t="s">
+      <c r="O32" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="O32" s="3" t="s">
+      <c r="P32" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="P32">
+      <c r="Q32">
         <v>100</v>
       </c>
-      <c r="Q32" s="6" t="s">
+      <c r="R32" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="R32" s="6" t="s">
+      <c r="S32" s="6" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="33" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -3035,38 +3248,41 @@
       <c r="H33" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I33" s="1" t="s">
+      <c r="I33" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="J33" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="J33" s="1">
+      <c r="K33" s="1">
         <v>36390000</v>
       </c>
-      <c r="K33" s="3" t="s">
+      <c r="L33" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="L33" s="3" t="s">
+      <c r="M33" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M33" s="3" t="s">
+      <c r="N33" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="N33" s="3" t="s">
+      <c r="O33" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O33" s="3" t="s">
+      <c r="P33" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="P33">
+      <c r="Q33">
         <v>100</v>
       </c>
-      <c r="Q33" s="6" t="s">
+      <c r="R33" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="R33" s="6" t="s">
+      <c r="S33" s="6" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="34" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -3092,38 +3308,41 @@
       <c r="H34" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I34" s="5" t="s">
+      <c r="I34" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="J34" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="J34" s="1">
+      <c r="K34" s="1">
         <v>36390000</v>
       </c>
-      <c r="K34" s="3" t="s">
+      <c r="L34" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="L34" s="3" t="s">
+      <c r="M34" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M34" s="3" t="s">
+      <c r="N34" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="N34" s="3" t="s">
+      <c r="O34" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O34" s="3" t="s">
+      <c r="P34" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="P34">
+      <c r="Q34">
         <v>100</v>
       </c>
-      <c r="Q34" s="6" t="s">
+      <c r="R34" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="R34" s="6" t="s">
+      <c r="S34" s="6" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="35" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -3149,38 +3368,41 @@
       <c r="H35" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I35" s="1" t="s">
+      <c r="I35" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="J35" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="J35" s="1">
+      <c r="K35" s="1">
         <v>36390000</v>
       </c>
-      <c r="K35" s="3" t="s">
+      <c r="L35" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="L35" s="3" t="s">
+      <c r="M35" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M35" s="3" t="s">
+      <c r="N35" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="N35" s="3" t="s">
+      <c r="O35" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O35" s="3" t="s">
+      <c r="P35" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="P35">
+      <c r="Q35">
         <v>100</v>
       </c>
-      <c r="Q35" s="6" t="s">
+      <c r="R35" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="R35" s="6" t="s">
+      <c r="S35" s="6" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="36" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -3206,38 +3428,41 @@
       <c r="H36" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I36" s="1" t="s">
+      <c r="I36" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="J36" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="J36" s="1">
+      <c r="K36" s="1">
         <v>39890000</v>
       </c>
-      <c r="K36" s="3" t="s">
+      <c r="L36" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="L36" s="3" t="s">
+      <c r="M36" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M36" s="3" t="s">
+      <c r="N36" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="N36" s="3" t="s">
+      <c r="O36" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O36" s="3" t="s">
+      <c r="P36" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="P36">
+      <c r="Q36">
         <v>100</v>
       </c>
-      <c r="Q36" s="6" t="s">
+      <c r="R36" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="R36" s="6" t="s">
+      <c r="S36" s="6" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="37" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -3263,38 +3488,41 @@
       <c r="H37" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I37" s="5" t="s">
+      <c r="I37" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="J37" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="J37" s="1">
+      <c r="K37" s="1">
         <v>39890000</v>
       </c>
-      <c r="K37" s="3" t="s">
+      <c r="L37" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="L37" s="3" t="s">
+      <c r="M37" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M37" s="3" t="s">
+      <c r="N37" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="N37" s="3" t="s">
+      <c r="O37" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O37" s="3" t="s">
+      <c r="P37" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="P37">
+      <c r="Q37">
         <v>100</v>
       </c>
-      <c r="Q37" s="6" t="s">
+      <c r="R37" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="R37" s="6" t="s">
+      <c r="S37" s="6" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="38" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -3320,47 +3548,50 @@
       <c r="H38" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I38" s="1" t="s">
+      <c r="I38" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="J38" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="J38" s="1">
+      <c r="K38" s="1">
         <v>39890000</v>
       </c>
-      <c r="K38" s="3" t="s">
+      <c r="L38" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="L38" s="3" t="s">
+      <c r="M38" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M38" s="3" t="s">
+      <c r="N38" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="N38" s="3" t="s">
+      <c r="O38" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O38" s="3" t="s">
+      <c r="P38" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="P38">
+      <c r="Q38">
         <v>100</v>
       </c>
-      <c r="Q38" s="6" t="s">
+      <c r="R38" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="R38" s="6" t="s">
+      <c r="S38" s="6" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="39" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="40" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="41" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="42" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="43" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="44" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="45" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="46" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="47" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="48" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="39" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="40" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="41" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="42" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="43" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="44" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="45" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="46" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="47" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="48" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4325,7 +4556,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF3B5316-AE17-4003-9B8C-48FC1A2D6E9D}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -4627,7 +4858,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -4963,10 +5194,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:R911"/>
+  <dimension ref="A1:S911"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="S14" sqref="S14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4988,7 +5219,7 @@
     <col min="18" max="28" width="10.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>118</v>
       </c>
@@ -5043,8 +5274,11 @@
       <c r="R1" s="5" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="S1" s="5" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5100,8 +5334,11 @@
       <c r="R2">
         <v>50</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="S2" s="7" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -5157,8 +5394,11 @@
       <c r="R3">
         <v>50</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="S3" s="7" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -5214,8 +5454,11 @@
       <c r="R4">
         <v>50</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="S4" s="7" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -5271,8 +5514,11 @@
       <c r="R5">
         <v>50</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="S5" s="7" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -5328,8 +5574,11 @@
       <c r="R6">
         <v>50</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="S6" s="7" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -5385,8 +5634,11 @@
       <c r="R7">
         <v>50</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="S7" s="7" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -5442,8 +5694,11 @@
       <c r="R8">
         <v>50</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="S8" s="7" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -5499,8 +5754,11 @@
       <c r="R9">
         <v>50</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="S9" s="7" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -5556,8 +5814,11 @@
       <c r="R10">
         <v>50</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="S10" s="7" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -5613,8 +5874,11 @@
       <c r="R11">
         <v>50</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="S11" s="7" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -5670,8 +5934,11 @@
       <c r="R12">
         <v>50</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="S12" s="7" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -5727,10 +5994,13 @@
       <c r="R13">
         <v>50</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+      <c r="S13" s="7" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6834,10 +7104,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:O994"/>
+  <dimension ref="A1:P994"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6846,16 +7116,16 @@
     <col min="3" max="3" width="10.59765625" customWidth="1"/>
     <col min="4" max="4" width="26" customWidth="1"/>
     <col min="5" max="5" width="18.296875" customWidth="1"/>
-    <col min="6" max="6" width="11.09765625" customWidth="1"/>
-    <col min="7" max="7" width="14.296875" customWidth="1"/>
-    <col min="8" max="8" width="16.296875" customWidth="1"/>
-    <col min="9" max="9" width="17.69921875" customWidth="1"/>
-    <col min="10" max="10" width="18.796875" customWidth="1"/>
-    <col min="11" max="11" width="22.09765625" customWidth="1"/>
-    <col min="12" max="27" width="10.59765625" customWidth="1"/>
+    <col min="6" max="7" width="11.09765625" customWidth="1"/>
+    <col min="8" max="8" width="14.296875" customWidth="1"/>
+    <col min="9" max="9" width="16.296875" customWidth="1"/>
+    <col min="10" max="10" width="17.69921875" customWidth="1"/>
+    <col min="11" max="11" width="18.796875" customWidth="1"/>
+    <col min="12" max="12" width="22.09765625" customWidth="1"/>
+    <col min="13" max="28" width="10.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>138</v>
       </c>
@@ -6875,34 +7145,37 @@
         <v>4</v>
       </c>
       <c r="G1" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>135</v>
       </c>
@@ -6922,35 +7195,38 @@
       <c r="F2" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="H2" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="I2" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="J2" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="K2" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="L2" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="M2" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="N2" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>38</v>
       </c>
-      <c r="O2" s="7" t="s">
+      <c r="P2" s="7" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>135</v>
       </c>
@@ -6970,35 +7246,38 @@
       <c r="F3" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="H3" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="I3" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="J3" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="K3" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="L3" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="M3" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="M3" s="5" t="s">
+      <c r="N3" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>38</v>
       </c>
-      <c r="O3" s="7" t="s">
+      <c r="P3" s="7" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>136</v>
       </c>
@@ -7018,35 +7297,38 @@
       <c r="F4" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="H4" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="I4" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="J4" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="K4" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="L4" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="L4" s="5" t="s">
+      <c r="M4" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="M4" s="5" t="s">
+      <c r="N4" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>38</v>
       </c>
-      <c r="O4" s="7" t="s">
+      <c r="P4" s="7" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>136</v>
       </c>
@@ -7066,35 +7348,38 @@
       <c r="F5" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="H5" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="I5" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="J5" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="K5" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="L5" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="L5" s="5" t="s">
+      <c r="M5" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="M5" s="5" t="s">
+      <c r="N5" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>38</v>
       </c>
-      <c r="O5" s="7" t="s">
+      <c r="P5" s="7" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>137</v>
       </c>
@@ -7114,35 +7399,38 @@
       <c r="F6" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="H6" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="I6" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="J6" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="J6" s="5" t="s">
+      <c r="K6" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="K6" s="5" t="s">
+      <c r="L6" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="L6" s="5" t="s">
+      <c r="M6" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="M6" s="5" t="s">
+      <c r="N6" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>38</v>
       </c>
-      <c r="O6" s="7" t="s">
+      <c r="P6" s="7" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>137</v>
       </c>
@@ -7162,35 +7450,38 @@
       <c r="F7" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="H7" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="I7" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="J7" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="J7" s="5" t="s">
+      <c r="K7" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="K7" s="5" t="s">
+      <c r="L7" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="L7" s="5" t="s">
+      <c r="M7" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="M7" s="5" t="s">
+      <c r="N7" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>38</v>
       </c>
-      <c r="O7" s="7" t="s">
+      <c r="P7" s="7" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>137</v>
       </c>
@@ -7210,35 +7501,38 @@
       <c r="F8" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="H8" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="I8" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="J8" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="J8" s="5" t="s">
+      <c r="K8" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="K8" s="5" t="s">
+      <c r="L8" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="L8" s="5" t="s">
+      <c r="M8" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="M8" s="5" t="s">
+      <c r="N8" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>38</v>
       </c>
-      <c r="O8" s="7" t="s">
+      <c r="P8" s="7" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>137</v>
       </c>
@@ -7258,41 +7552,44 @@
       <c r="F9" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="H9" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="I9" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="I9" s="5" t="s">
+      <c r="J9" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="J9" s="5" t="s">
+      <c r="K9" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="K9" s="5" t="s">
+      <c r="L9" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="L9" s="5" t="s">
+      <c r="M9" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="M9" s="5" t="s">
+      <c r="N9" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>38</v>
       </c>
-      <c r="O9" s="7" t="s">
+      <c r="P9" s="7" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
